--- a/Data/bombay1.xlsx
+++ b/Data/bombay1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3260"/>
+  <dimension ref="A1:J3586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78677,6 +78677,9326 @@
         <v>212</v>
       </c>
     </row>
+    <row r="3261">
+      <c r="A3261" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3261" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3261" t="inlineStr"/>
+      <c r="D3261" t="inlineStr"/>
+      <c r="E3261" t="inlineStr"/>
+      <c r="F3261" t="inlineStr"/>
+      <c r="G3261" t="inlineStr"/>
+      <c r="H3261" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3262" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3262" t="inlineStr"/>
+      <c r="D3262" t="inlineStr"/>
+      <c r="E3262" t="inlineStr"/>
+      <c r="F3262" t="inlineStr"/>
+      <c r="G3262" t="inlineStr"/>
+      <c r="H3262" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3263" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3263" t="inlineStr"/>
+      <c r="D3263" t="inlineStr"/>
+      <c r="E3263" t="inlineStr"/>
+      <c r="F3263" t="inlineStr"/>
+      <c r="G3263" t="inlineStr"/>
+      <c r="H3263" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3263" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3264" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3264" t="inlineStr"/>
+      <c r="D3264" t="inlineStr"/>
+      <c r="E3264" t="inlineStr"/>
+      <c r="F3264" t="inlineStr"/>
+      <c r="G3264" t="inlineStr"/>
+      <c r="H3264" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3264" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3264" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3265" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3265" t="inlineStr"/>
+      <c r="D3265" t="inlineStr"/>
+      <c r="E3265" t="inlineStr"/>
+      <c r="F3265" t="inlineStr"/>
+      <c r="G3265" t="inlineStr"/>
+      <c r="H3265" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3265" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3266" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3266" t="inlineStr"/>
+      <c r="D3266" t="inlineStr"/>
+      <c r="E3266" t="inlineStr"/>
+      <c r="F3266" t="inlineStr"/>
+      <c r="G3266" t="inlineStr"/>
+      <c r="H3266" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3266" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3266" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3267" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3267" t="inlineStr"/>
+      <c r="D3267" t="inlineStr"/>
+      <c r="E3267" t="inlineStr"/>
+      <c r="F3267" t="inlineStr"/>
+      <c r="G3267" t="inlineStr"/>
+      <c r="H3267" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3267" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3268" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3268" t="inlineStr"/>
+      <c r="D3268" t="inlineStr"/>
+      <c r="E3268" t="inlineStr"/>
+      <c r="F3268" t="inlineStr"/>
+      <c r="G3268" t="inlineStr"/>
+      <c r="H3268" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3268" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3268" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3269" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3269" t="inlineStr"/>
+      <c r="D3269" t="inlineStr"/>
+      <c r="E3269" t="inlineStr"/>
+      <c r="F3269" t="inlineStr"/>
+      <c r="G3269" t="inlineStr"/>
+      <c r="H3269" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3269" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3270" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3270" t="inlineStr"/>
+      <c r="D3270" t="inlineStr"/>
+      <c r="E3270" t="inlineStr"/>
+      <c r="F3270" t="inlineStr"/>
+      <c r="G3270" t="inlineStr"/>
+      <c r="H3270" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3270" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3271" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3271" t="inlineStr"/>
+      <c r="D3271" t="inlineStr"/>
+      <c r="E3271" t="inlineStr"/>
+      <c r="F3271" t="inlineStr"/>
+      <c r="G3271" t="inlineStr"/>
+      <c r="H3271" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3271" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3272" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3272" t="inlineStr"/>
+      <c r="D3272" t="inlineStr"/>
+      <c r="E3272" t="inlineStr"/>
+      <c r="F3272" t="inlineStr"/>
+      <c r="G3272" t="inlineStr"/>
+      <c r="H3272" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3272" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3273" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3273" t="inlineStr"/>
+      <c r="D3273" t="inlineStr"/>
+      <c r="E3273" t="inlineStr"/>
+      <c r="F3273" t="inlineStr"/>
+      <c r="G3273" t="inlineStr"/>
+      <c r="H3273" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3273" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3274" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3274" t="inlineStr"/>
+      <c r="D3274" t="inlineStr"/>
+      <c r="E3274" t="inlineStr"/>
+      <c r="F3274" t="inlineStr"/>
+      <c r="G3274" t="inlineStr"/>
+      <c r="H3274" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3274" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3275" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3275" t="inlineStr"/>
+      <c r="D3275" t="inlineStr"/>
+      <c r="E3275" t="inlineStr"/>
+      <c r="F3275" t="inlineStr"/>
+      <c r="G3275" t="inlineStr"/>
+      <c r="H3275" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3275" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3276" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3276" t="inlineStr"/>
+      <c r="D3276" t="inlineStr"/>
+      <c r="E3276" t="inlineStr"/>
+      <c r="F3276" t="inlineStr"/>
+      <c r="G3276" t="inlineStr"/>
+      <c r="H3276" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3276" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3277" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3277" t="inlineStr"/>
+      <c r="D3277" t="inlineStr"/>
+      <c r="E3277" t="inlineStr"/>
+      <c r="F3277" t="inlineStr"/>
+      <c r="G3277" t="inlineStr"/>
+      <c r="H3277" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3277" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3278" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3278" t="inlineStr"/>
+      <c r="D3278" t="inlineStr"/>
+      <c r="E3278" t="inlineStr"/>
+      <c r="F3278" t="inlineStr"/>
+      <c r="G3278" t="inlineStr"/>
+      <c r="H3278" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3278" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3278" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3279" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3279" t="inlineStr"/>
+      <c r="D3279" t="inlineStr"/>
+      <c r="E3279" t="inlineStr"/>
+      <c r="F3279" t="inlineStr"/>
+      <c r="G3279" t="inlineStr"/>
+      <c r="H3279" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3279" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3280" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3280" t="inlineStr"/>
+      <c r="D3280" t="inlineStr"/>
+      <c r="E3280" t="inlineStr"/>
+      <c r="F3280" t="inlineStr"/>
+      <c r="G3280" t="inlineStr"/>
+      <c r="H3280" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3280" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3281" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3281" t="inlineStr"/>
+      <c r="D3281" t="inlineStr"/>
+      <c r="E3281" t="inlineStr"/>
+      <c r="F3281" t="inlineStr"/>
+      <c r="G3281" t="inlineStr"/>
+      <c r="H3281" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3281" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3281" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3282" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3282" t="inlineStr"/>
+      <c r="D3282" t="inlineStr"/>
+      <c r="E3282" t="inlineStr"/>
+      <c r="F3282" t="inlineStr"/>
+      <c r="G3282" t="inlineStr"/>
+      <c r="H3282" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3282" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3282" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3283" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3283" t="inlineStr"/>
+      <c r="D3283" t="inlineStr"/>
+      <c r="E3283" t="inlineStr"/>
+      <c r="F3283" t="inlineStr"/>
+      <c r="G3283" t="inlineStr"/>
+      <c r="H3283" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3283" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3284" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3284" t="inlineStr"/>
+      <c r="D3284" t="inlineStr"/>
+      <c r="E3284" t="inlineStr"/>
+      <c r="F3284" t="inlineStr"/>
+      <c r="G3284" t="inlineStr"/>
+      <c r="H3284" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3284" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3285" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3285" t="inlineStr"/>
+      <c r="D3285" t="inlineStr"/>
+      <c r="E3285" t="inlineStr"/>
+      <c r="F3285" t="inlineStr"/>
+      <c r="G3285" t="inlineStr"/>
+      <c r="H3285" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3285" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3286" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3286" t="inlineStr"/>
+      <c r="D3286" t="inlineStr"/>
+      <c r="E3286" t="inlineStr"/>
+      <c r="F3286" t="inlineStr"/>
+      <c r="G3286" t="inlineStr"/>
+      <c r="H3286" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3286" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3286" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3287" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3287" t="inlineStr"/>
+      <c r="D3287" t="inlineStr"/>
+      <c r="E3287" t="inlineStr"/>
+      <c r="F3287" t="inlineStr"/>
+      <c r="G3287" t="inlineStr"/>
+      <c r="H3287" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3287" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3288" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3288" t="inlineStr"/>
+      <c r="D3288" t="inlineStr"/>
+      <c r="E3288" t="inlineStr"/>
+      <c r="F3288" t="inlineStr"/>
+      <c r="G3288" t="inlineStr"/>
+      <c r="H3288" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3288" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3289" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3289" t="inlineStr"/>
+      <c r="D3289" t="inlineStr"/>
+      <c r="E3289" t="inlineStr"/>
+      <c r="F3289" t="inlineStr"/>
+      <c r="G3289" t="inlineStr"/>
+      <c r="H3289" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3289" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3290" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3290" t="inlineStr"/>
+      <c r="D3290" t="inlineStr"/>
+      <c r="E3290" t="inlineStr"/>
+      <c r="F3290" t="inlineStr"/>
+      <c r="G3290" t="inlineStr"/>
+      <c r="H3290" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3290" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3291" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3291" t="inlineStr"/>
+      <c r="D3291" t="inlineStr"/>
+      <c r="E3291" t="inlineStr"/>
+      <c r="F3291" t="inlineStr"/>
+      <c r="G3291" t="inlineStr"/>
+      <c r="H3291" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3291" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3292" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3292" t="inlineStr"/>
+      <c r="D3292" t="inlineStr"/>
+      <c r="E3292" t="inlineStr"/>
+      <c r="F3292" t="inlineStr"/>
+      <c r="G3292" t="inlineStr"/>
+      <c r="H3292" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3292" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3293" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3293" t="inlineStr"/>
+      <c r="D3293" t="inlineStr"/>
+      <c r="E3293" t="inlineStr"/>
+      <c r="F3293" t="inlineStr"/>
+      <c r="G3293" t="inlineStr"/>
+      <c r="H3293" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3293" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3293" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3294" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3294" t="inlineStr"/>
+      <c r="D3294" t="inlineStr"/>
+      <c r="E3294" t="inlineStr"/>
+      <c r="F3294" t="inlineStr"/>
+      <c r="G3294" t="inlineStr"/>
+      <c r="H3294" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3294" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3295" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3295" t="inlineStr"/>
+      <c r="D3295" t="inlineStr"/>
+      <c r="E3295" t="inlineStr"/>
+      <c r="F3295" t="inlineStr"/>
+      <c r="G3295" t="inlineStr"/>
+      <c r="H3295" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3295" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3296" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3296" t="inlineStr"/>
+      <c r="D3296" t="inlineStr"/>
+      <c r="E3296" t="inlineStr"/>
+      <c r="F3296" t="inlineStr"/>
+      <c r="G3296" t="inlineStr"/>
+      <c r="H3296" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3296" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3297" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3297" t="inlineStr"/>
+      <c r="D3297" t="inlineStr"/>
+      <c r="E3297" t="inlineStr"/>
+      <c r="F3297" t="inlineStr"/>
+      <c r="G3297" t="inlineStr"/>
+      <c r="H3297" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3297" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3297" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3298" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3298" t="inlineStr"/>
+      <c r="D3298" t="inlineStr"/>
+      <c r="E3298" t="inlineStr"/>
+      <c r="F3298" t="inlineStr"/>
+      <c r="G3298" t="inlineStr"/>
+      <c r="H3298" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3298" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3299" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3299" t="inlineStr"/>
+      <c r="D3299" t="inlineStr"/>
+      <c r="E3299" t="inlineStr"/>
+      <c r="F3299" t="inlineStr"/>
+      <c r="G3299" t="inlineStr"/>
+      <c r="H3299" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3299" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3300" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3300" t="inlineStr"/>
+      <c r="D3300" t="inlineStr"/>
+      <c r="E3300" t="inlineStr"/>
+      <c r="F3300" t="inlineStr"/>
+      <c r="G3300" t="inlineStr"/>
+      <c r="H3300" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3300" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3301" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3301" t="inlineStr"/>
+      <c r="D3301" t="inlineStr"/>
+      <c r="E3301" t="inlineStr"/>
+      <c r="F3301" t="inlineStr"/>
+      <c r="G3301" t="inlineStr"/>
+      <c r="H3301" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3301" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3302" t="inlineStr">
+        <is>
+          <t>{23: 0}</t>
+        </is>
+      </c>
+      <c r="C3302" t="inlineStr"/>
+      <c r="D3302" t="inlineStr"/>
+      <c r="E3302" t="inlineStr"/>
+      <c r="F3302" t="inlineStr"/>
+      <c r="G3302" t="inlineStr"/>
+      <c r="H3302" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3302" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3303" t="inlineStr">
+        <is>
+          <t>{23: 1}</t>
+        </is>
+      </c>
+      <c r="C3303" t="inlineStr"/>
+      <c r="D3303" t="inlineStr"/>
+      <c r="E3303" t="inlineStr"/>
+      <c r="F3303" t="inlineStr"/>
+      <c r="G3303" t="inlineStr"/>
+      <c r="H3303" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3303" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3303" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3304" t="inlineStr">
+        <is>
+          <t>{23: 2}</t>
+        </is>
+      </c>
+      <c r="C3304" t="inlineStr"/>
+      <c r="D3304" t="inlineStr"/>
+      <c r="E3304" t="inlineStr"/>
+      <c r="F3304" t="inlineStr"/>
+      <c r="G3304" t="inlineStr"/>
+      <c r="H3304" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3304" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3305" t="inlineStr">
+        <is>
+          <t>{23: 3}</t>
+        </is>
+      </c>
+      <c r="C3305" t="inlineStr"/>
+      <c r="D3305" t="inlineStr"/>
+      <c r="E3305" t="inlineStr"/>
+      <c r="F3305" t="inlineStr"/>
+      <c r="G3305" t="inlineStr"/>
+      <c r="H3305" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3305" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3306" t="inlineStr">
+        <is>
+          <t>{23: 4}</t>
+        </is>
+      </c>
+      <c r="C3306" t="inlineStr"/>
+      <c r="D3306" t="inlineStr"/>
+      <c r="E3306" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3306" t="inlineStr"/>
+      <c r="G3306" t="inlineStr"/>
+      <c r="H3306" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3306" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3307" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3307" t="inlineStr"/>
+      <c r="D3307" t="inlineStr"/>
+      <c r="E3307" t="inlineStr"/>
+      <c r="F3307" t="inlineStr"/>
+      <c r="G3307" t="inlineStr"/>
+      <c r="H3307" t="inlineStr">
+        <is>
+          <t>{23: 4}</t>
+        </is>
+      </c>
+      <c r="I3307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3307" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3308" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3308" t="inlineStr"/>
+      <c r="D3308" t="inlineStr"/>
+      <c r="E3308" t="inlineStr"/>
+      <c r="F3308" t="inlineStr"/>
+      <c r="G3308" t="inlineStr"/>
+      <c r="H3308" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3308" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3309" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3309" t="inlineStr"/>
+      <c r="D3309" t="inlineStr"/>
+      <c r="E3309" t="inlineStr"/>
+      <c r="F3309" t="inlineStr"/>
+      <c r="G3309" t="inlineStr"/>
+      <c r="H3309" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3309" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3310" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3310" t="inlineStr"/>
+      <c r="D3310" t="inlineStr"/>
+      <c r="E3310" t="inlineStr"/>
+      <c r="F3310" t="inlineStr"/>
+      <c r="G3310" t="inlineStr"/>
+      <c r="H3310" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3310" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3310" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3311" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3311" t="inlineStr"/>
+      <c r="D3311" t="inlineStr"/>
+      <c r="E3311" t="inlineStr"/>
+      <c r="F3311" t="inlineStr"/>
+      <c r="G3311" t="inlineStr"/>
+      <c r="H3311" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3311" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3312" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3312" t="inlineStr"/>
+      <c r="D3312" t="inlineStr"/>
+      <c r="E3312" t="inlineStr"/>
+      <c r="F3312" t="inlineStr"/>
+      <c r="G3312" t="inlineStr"/>
+      <c r="H3312" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3312" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3312" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3313" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3313" t="inlineStr"/>
+      <c r="D3313" t="inlineStr"/>
+      <c r="E3313" t="inlineStr"/>
+      <c r="F3313" t="inlineStr"/>
+      <c r="G3313" t="inlineStr"/>
+      <c r="H3313" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3313" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3313" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3314" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3314" t="inlineStr"/>
+      <c r="D3314" t="inlineStr"/>
+      <c r="E3314" t="inlineStr"/>
+      <c r="F3314" t="inlineStr"/>
+      <c r="G3314" t="inlineStr"/>
+      <c r="H3314" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3314" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3314" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3315" t="inlineStr">
+        <is>
+          <t>{5: 0}</t>
+        </is>
+      </c>
+      <c r="C3315" t="inlineStr"/>
+      <c r="D3315" t="inlineStr"/>
+      <c r="E3315" t="inlineStr"/>
+      <c r="F3315" t="inlineStr"/>
+      <c r="G3315" t="inlineStr"/>
+      <c r="H3315" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3315" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3316" t="inlineStr">
+        <is>
+          <t>{5: 1}</t>
+        </is>
+      </c>
+      <c r="C3316" t="inlineStr"/>
+      <c r="D3316" t="inlineStr"/>
+      <c r="E3316" t="inlineStr"/>
+      <c r="F3316" t="inlineStr"/>
+      <c r="G3316" t="inlineStr"/>
+      <c r="H3316" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3316" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3317" t="inlineStr">
+        <is>
+          <t>{5: 2}</t>
+        </is>
+      </c>
+      <c r="C3317" t="inlineStr"/>
+      <c r="D3317" t="inlineStr"/>
+      <c r="E3317" t="inlineStr"/>
+      <c r="F3317" t="inlineStr"/>
+      <c r="G3317" t="inlineStr"/>
+      <c r="H3317" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3317" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3318" t="inlineStr">
+        <is>
+          <t>{5: 3}</t>
+        </is>
+      </c>
+      <c r="C3318" t="inlineStr"/>
+      <c r="D3318" t="inlineStr"/>
+      <c r="E3318" t="inlineStr"/>
+      <c r="F3318" t="inlineStr"/>
+      <c r="G3318" t="inlineStr"/>
+      <c r="H3318" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3318" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3318" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3319" t="inlineStr">
+        <is>
+          <t>{0: 0, 5: 4}</t>
+        </is>
+      </c>
+      <c r="C3319" t="inlineStr"/>
+      <c r="D3319" t="inlineStr"/>
+      <c r="E3319" t="inlineStr"/>
+      <c r="F3319" t="inlineStr"/>
+      <c r="G3319" t="inlineStr"/>
+      <c r="H3319" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3319" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3320" t="inlineStr">
+        <is>
+          <t>{0: 1, 5: 5}</t>
+        </is>
+      </c>
+      <c r="C3320" t="inlineStr"/>
+      <c r="D3320" t="inlineStr"/>
+      <c r="E3320" t="inlineStr"/>
+      <c r="F3320" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G3320" t="inlineStr"/>
+      <c r="H3320" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3320" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3320" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3321" t="inlineStr">
+        <is>
+          <t>{0: 2, 5: 6}</t>
+        </is>
+      </c>
+      <c r="C3321" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D3321" t="inlineStr"/>
+      <c r="E3321" t="inlineStr"/>
+      <c r="F3321" t="inlineStr"/>
+      <c r="G3321" t="inlineStr"/>
+      <c r="H3321" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3321" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3321" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3322" t="inlineStr">
+        <is>
+          <t>{17: 0, 0: 3}</t>
+        </is>
+      </c>
+      <c r="C3322" t="inlineStr"/>
+      <c r="D3322" t="inlineStr"/>
+      <c r="E3322" t="inlineStr"/>
+      <c r="F3322" t="inlineStr"/>
+      <c r="G3322" t="inlineStr"/>
+      <c r="H3322" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3322" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3322" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3323" t="inlineStr">
+        <is>
+          <t>{17: 1, 0: 4}</t>
+        </is>
+      </c>
+      <c r="C3323" t="inlineStr"/>
+      <c r="D3323" t="inlineStr"/>
+      <c r="E3323" t="inlineStr"/>
+      <c r="F3323" t="inlineStr"/>
+      <c r="G3323" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H3323" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3323" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3323" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3324" t="inlineStr">
+        <is>
+          <t>{17: 2, 0: 5}</t>
+        </is>
+      </c>
+      <c r="C3324" t="inlineStr"/>
+      <c r="D3324" t="inlineStr"/>
+      <c r="E3324" t="inlineStr"/>
+      <c r="F3324" t="inlineStr"/>
+      <c r="G3324" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H3324" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3324" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3325" t="inlineStr">
+        <is>
+          <t>{17: 3, 0: 6}</t>
+        </is>
+      </c>
+      <c r="C3325" t="inlineStr"/>
+      <c r="D3325" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3325" t="inlineStr"/>
+      <c r="F3325" t="inlineStr"/>
+      <c r="G3325" t="inlineStr"/>
+      <c r="H3325" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3325" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3325" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3326" t="inlineStr">
+        <is>
+          <t>{17: 4}</t>
+        </is>
+      </c>
+      <c r="C3326" t="inlineStr"/>
+      <c r="D3326" t="inlineStr"/>
+      <c r="E3326" t="inlineStr"/>
+      <c r="F3326" t="inlineStr"/>
+      <c r="G3326" t="inlineStr"/>
+      <c r="H3326" t="inlineStr">
+        <is>
+          <t>{0: 6}</t>
+        </is>
+      </c>
+      <c r="I3326" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3326" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3327" t="inlineStr">
+        <is>
+          <t>{17: 5}</t>
+        </is>
+      </c>
+      <c r="C3327" t="inlineStr"/>
+      <c r="D3327" t="inlineStr"/>
+      <c r="E3327" t="inlineStr"/>
+      <c r="F3327" t="inlineStr"/>
+      <c r="G3327" t="inlineStr"/>
+      <c r="H3327" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3327" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3327" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3328" t="inlineStr">
+        <is>
+          <t>{17: 6}</t>
+        </is>
+      </c>
+      <c r="C3328" t="inlineStr"/>
+      <c r="D3328" t="inlineStr"/>
+      <c r="E3328" t="inlineStr"/>
+      <c r="F3328" t="inlineStr"/>
+      <c r="G3328" t="inlineStr"/>
+      <c r="H3328" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3328" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3328" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3329" t="inlineStr">
+        <is>
+          <t>{17: 7}</t>
+        </is>
+      </c>
+      <c r="C3329" t="inlineStr"/>
+      <c r="D3329" t="inlineStr"/>
+      <c r="E3329" t="inlineStr"/>
+      <c r="F3329" t="inlineStr"/>
+      <c r="G3329" t="inlineStr"/>
+      <c r="H3329" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3329" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3330">
+      <c r="A3330" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3330" t="inlineStr">
+        <is>
+          <t>{17: 8}</t>
+        </is>
+      </c>
+      <c r="C3330" t="inlineStr"/>
+      <c r="D3330" t="inlineStr"/>
+      <c r="E3330" t="inlineStr"/>
+      <c r="F3330" t="inlineStr"/>
+      <c r="G3330" t="inlineStr"/>
+      <c r="H3330" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3330" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3331" t="inlineStr">
+        <is>
+          <t>{17: 9}</t>
+        </is>
+      </c>
+      <c r="C3331" t="inlineStr"/>
+      <c r="D3331" t="inlineStr"/>
+      <c r="E3331" t="inlineStr"/>
+      <c r="F3331" t="inlineStr"/>
+      <c r="G3331" t="inlineStr"/>
+      <c r="H3331" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3331" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3331" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3332">
+      <c r="A3332" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3332" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3332" t="inlineStr"/>
+      <c r="D3332" t="inlineStr"/>
+      <c r="E3332" t="inlineStr"/>
+      <c r="F3332" t="inlineStr"/>
+      <c r="G3332" t="inlineStr"/>
+      <c r="H3332" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3332" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="J3332" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3333">
+      <c r="A3333" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3333" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3333" t="inlineStr"/>
+      <c r="D3333" t="inlineStr"/>
+      <c r="E3333" t="inlineStr"/>
+      <c r="F3333" t="inlineStr"/>
+      <c r="G3333" t="inlineStr"/>
+      <c r="H3333" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3333" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3333" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3334">
+      <c r="A3334" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3334" t="inlineStr">
+        <is>
+          <t>{34: 0}</t>
+        </is>
+      </c>
+      <c r="C3334" t="inlineStr"/>
+      <c r="D3334" t="inlineStr"/>
+      <c r="E3334" t="inlineStr"/>
+      <c r="F3334" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G3334" t="inlineStr"/>
+      <c r="H3334" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3334" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3335">
+      <c r="A3335" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3335" t="inlineStr">
+        <is>
+          <t>{34: 1}</t>
+        </is>
+      </c>
+      <c r="C3335" t="inlineStr"/>
+      <c r="D3335" t="inlineStr"/>
+      <c r="E3335" t="inlineStr"/>
+      <c r="F3335" t="inlineStr"/>
+      <c r="G3335" t="inlineStr"/>
+      <c r="H3335" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3335" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3336">
+      <c r="A3336" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3336" t="inlineStr">
+        <is>
+          <t>{34: 2}</t>
+        </is>
+      </c>
+      <c r="C3336" t="inlineStr"/>
+      <c r="D3336" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3336" t="inlineStr"/>
+      <c r="F3336" t="inlineStr"/>
+      <c r="G3336" t="inlineStr"/>
+      <c r="H3336" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3336" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3337">
+      <c r="A3337" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3337" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3337" t="inlineStr"/>
+      <c r="D3337" t="inlineStr"/>
+      <c r="E3337" t="inlineStr"/>
+      <c r="F3337" t="inlineStr"/>
+      <c r="G3337" t="inlineStr"/>
+      <c r="H3337" t="inlineStr">
+        <is>
+          <t>{34: 2}</t>
+        </is>
+      </c>
+      <c r="I3337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3337" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3338">
+      <c r="A3338" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3338" t="inlineStr">
+        <is>
+          <t>{15: 0}</t>
+        </is>
+      </c>
+      <c r="C3338" t="inlineStr"/>
+      <c r="D3338" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3338" t="inlineStr"/>
+      <c r="F3338" t="inlineStr"/>
+      <c r="G3338" t="inlineStr"/>
+      <c r="H3338" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3338" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3339">
+      <c r="A3339" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3339" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3339" t="inlineStr"/>
+      <c r="D3339" t="inlineStr"/>
+      <c r="E3339" t="inlineStr"/>
+      <c r="F3339" t="inlineStr"/>
+      <c r="G3339" t="inlineStr"/>
+      <c r="H3339" t="inlineStr">
+        <is>
+          <t>{15: 0}</t>
+        </is>
+      </c>
+      <c r="I3339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3339" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3340">
+      <c r="A3340" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3340" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3340" t="inlineStr"/>
+      <c r="D3340" t="inlineStr"/>
+      <c r="E3340" t="inlineStr"/>
+      <c r="F3340" t="inlineStr"/>
+      <c r="G3340" t="inlineStr"/>
+      <c r="H3340" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3340" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3341">
+      <c r="A3341" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3341" t="inlineStr">
+        <is>
+          <t>{8: 0}</t>
+        </is>
+      </c>
+      <c r="C3341" t="inlineStr"/>
+      <c r="D3341" t="inlineStr"/>
+      <c r="E3341" t="inlineStr"/>
+      <c r="F3341" t="inlineStr"/>
+      <c r="G3341" t="inlineStr"/>
+      <c r="H3341" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3341" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3341" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3342">
+      <c r="A3342" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3342" t="inlineStr">
+        <is>
+          <t>{8: 1}</t>
+        </is>
+      </c>
+      <c r="C3342" t="inlineStr"/>
+      <c r="D3342" t="inlineStr"/>
+      <c r="E3342" t="inlineStr"/>
+      <c r="F3342" t="inlineStr"/>
+      <c r="G3342" t="inlineStr"/>
+      <c r="H3342" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3342" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3342" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3343">
+      <c r="A3343" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3343" t="inlineStr">
+        <is>
+          <t>{8: 2}</t>
+        </is>
+      </c>
+      <c r="C3343" t="inlineStr"/>
+      <c r="D3343" t="inlineStr"/>
+      <c r="E3343" t="inlineStr"/>
+      <c r="F3343" t="inlineStr"/>
+      <c r="G3343" t="inlineStr"/>
+      <c r="H3343" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3343" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3343" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3344">
+      <c r="A3344" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3344" t="inlineStr">
+        <is>
+          <t>{8: 3}</t>
+        </is>
+      </c>
+      <c r="C3344" t="inlineStr"/>
+      <c r="D3344" t="inlineStr"/>
+      <c r="E3344" t="inlineStr"/>
+      <c r="F3344" t="inlineStr"/>
+      <c r="G3344" t="inlineStr"/>
+      <c r="H3344" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3344" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3344" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3345">
+      <c r="A3345" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3345" t="inlineStr">
+        <is>
+          <t>{3: 0, 8: 4}</t>
+        </is>
+      </c>
+      <c r="C3345" t="inlineStr"/>
+      <c r="D3345" t="inlineStr"/>
+      <c r="E3345" t="inlineStr"/>
+      <c r="F3345" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G3345" t="inlineStr"/>
+      <c r="H3345" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3345" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3345" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3346">
+      <c r="A3346" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3346" t="inlineStr">
+        <is>
+          <t>{3: 1, 8: 5}</t>
+        </is>
+      </c>
+      <c r="C3346" t="inlineStr"/>
+      <c r="D3346" t="inlineStr"/>
+      <c r="E3346" t="inlineStr"/>
+      <c r="F3346" t="inlineStr"/>
+      <c r="G3346" t="inlineStr"/>
+      <c r="H3346" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3346" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3346" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3347">
+      <c r="A3347" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3347" t="inlineStr">
+        <is>
+          <t>{3: 2, 8: 6}</t>
+        </is>
+      </c>
+      <c r="C3347" t="inlineStr"/>
+      <c r="D3347" t="inlineStr"/>
+      <c r="E3347" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3347" t="inlineStr"/>
+      <c r="G3347" t="inlineStr"/>
+      <c r="H3347" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3347" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3347" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3348">
+      <c r="A3348" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3348" t="inlineStr">
+        <is>
+          <t>{3: 3}</t>
+        </is>
+      </c>
+      <c r="C3348" t="inlineStr"/>
+      <c r="D3348" t="inlineStr"/>
+      <c r="E3348" t="inlineStr"/>
+      <c r="F3348" t="inlineStr"/>
+      <c r="G3348" t="inlineStr"/>
+      <c r="H3348" t="inlineStr">
+        <is>
+          <t>{8: 6}</t>
+        </is>
+      </c>
+      <c r="I3348" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3348" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3349">
+      <c r="A3349" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3349" t="inlineStr">
+        <is>
+          <t>{3: 4}</t>
+        </is>
+      </c>
+      <c r="C3349" t="inlineStr"/>
+      <c r="D3349" t="inlineStr"/>
+      <c r="E3349" t="inlineStr"/>
+      <c r="F3349" t="inlineStr"/>
+      <c r="G3349" t="inlineStr"/>
+      <c r="H3349" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3349" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3350">
+      <c r="A3350" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3350" t="inlineStr">
+        <is>
+          <t>{10: 0, 3: 5}</t>
+        </is>
+      </c>
+      <c r="C3350" t="inlineStr"/>
+      <c r="D3350" t="inlineStr"/>
+      <c r="E3350" t="inlineStr"/>
+      <c r="F3350" t="inlineStr"/>
+      <c r="G3350" t="inlineStr"/>
+      <c r="H3350" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3350" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3351">
+      <c r="A3351" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3351" t="inlineStr">
+        <is>
+          <t>{10: 1, 3: 6}</t>
+        </is>
+      </c>
+      <c r="C3351" t="inlineStr"/>
+      <c r="D3351" t="inlineStr"/>
+      <c r="E3351" t="inlineStr"/>
+      <c r="F3351" t="inlineStr"/>
+      <c r="G3351" t="inlineStr"/>
+      <c r="H3351" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3351" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3351" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3352">
+      <c r="A3352" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3352" t="inlineStr">
+        <is>
+          <t>{10: 2, 3: 7}</t>
+        </is>
+      </c>
+      <c r="C3352" t="inlineStr"/>
+      <c r="D3352" t="inlineStr"/>
+      <c r="E3352" t="inlineStr"/>
+      <c r="F3352" t="inlineStr"/>
+      <c r="G3352" t="inlineStr"/>
+      <c r="H3352" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3352" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3352" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3353">
+      <c r="A3353" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3353" t="inlineStr">
+        <is>
+          <t>{10: 3, 3: 8}</t>
+        </is>
+      </c>
+      <c r="C3353" t="inlineStr"/>
+      <c r="D3353" t="inlineStr"/>
+      <c r="E3353" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3353" t="inlineStr"/>
+      <c r="G3353" t="inlineStr"/>
+      <c r="H3353" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3353" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3353" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3354">
+      <c r="A3354" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3354" t="inlineStr">
+        <is>
+          <t>{3: 9}</t>
+        </is>
+      </c>
+      <c r="C3354" t="inlineStr"/>
+      <c r="D3354" t="inlineStr"/>
+      <c r="E3354" t="inlineStr"/>
+      <c r="F3354" t="inlineStr"/>
+      <c r="G3354" t="inlineStr"/>
+      <c r="H3354" t="inlineStr">
+        <is>
+          <t>{10: 3}</t>
+        </is>
+      </c>
+      <c r="I3354" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3354" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3355">
+      <c r="A3355" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3355" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3355" t="inlineStr"/>
+      <c r="D3355" t="inlineStr"/>
+      <c r="E3355" t="inlineStr"/>
+      <c r="F3355" t="inlineStr"/>
+      <c r="G3355" t="inlineStr"/>
+      <c r="H3355" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3355" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+      <c r="J3355" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3356">
+      <c r="A3356" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3356" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3356" t="inlineStr"/>
+      <c r="D3356" t="inlineStr"/>
+      <c r="E3356" t="inlineStr"/>
+      <c r="F3356" t="inlineStr"/>
+      <c r="G3356" t="inlineStr"/>
+      <c r="H3356" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3356" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3356" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3357">
+      <c r="A3357" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3357" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3357" t="inlineStr"/>
+      <c r="D3357" t="inlineStr"/>
+      <c r="E3357" t="inlineStr"/>
+      <c r="F3357" t="inlineStr"/>
+      <c r="G3357" t="inlineStr"/>
+      <c r="H3357" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3357" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3357" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3358">
+      <c r="A3358" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3358" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3358" t="inlineStr"/>
+      <c r="D3358" t="inlineStr"/>
+      <c r="E3358" t="inlineStr"/>
+      <c r="F3358" t="inlineStr"/>
+      <c r="G3358" t="inlineStr"/>
+      <c r="H3358" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3358" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3358" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3359">
+      <c r="A3359" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3359" t="inlineStr">
+        <is>
+          <t>{19: 0}</t>
+        </is>
+      </c>
+      <c r="C3359" t="inlineStr"/>
+      <c r="D3359" t="inlineStr"/>
+      <c r="E3359" t="inlineStr"/>
+      <c r="F3359" t="inlineStr"/>
+      <c r="G3359" t="inlineStr"/>
+      <c r="H3359" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3359" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3359" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3360">
+      <c r="A3360" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3360" t="inlineStr">
+        <is>
+          <t>{12: 0, 19: 1}</t>
+        </is>
+      </c>
+      <c r="C3360" t="inlineStr"/>
+      <c r="D3360" t="inlineStr"/>
+      <c r="E3360" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3360" t="inlineStr"/>
+      <c r="G3360" t="inlineStr"/>
+      <c r="H3360" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3360" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3360" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3361">
+      <c r="A3361" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3361" t="inlineStr">
+        <is>
+          <t>{19: 2}</t>
+        </is>
+      </c>
+      <c r="C3361" t="inlineStr"/>
+      <c r="D3361" t="inlineStr"/>
+      <c r="E3361" t="inlineStr"/>
+      <c r="F3361" t="inlineStr"/>
+      <c r="G3361" t="inlineStr"/>
+      <c r="H3361" t="inlineStr">
+        <is>
+          <t>{12: 0}</t>
+        </is>
+      </c>
+      <c r="I3361" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3361" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3362">
+      <c r="A3362" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3362" t="inlineStr">
+        <is>
+          <t>{19: 3}</t>
+        </is>
+      </c>
+      <c r="C3362" t="inlineStr"/>
+      <c r="D3362" t="inlineStr"/>
+      <c r="E3362" t="inlineStr"/>
+      <c r="F3362" t="inlineStr"/>
+      <c r="G3362" t="inlineStr"/>
+      <c r="H3362" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3362" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3362" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3363" t="inlineStr">
+        <is>
+          <t>{19: 4}</t>
+        </is>
+      </c>
+      <c r="C3363" t="inlineStr"/>
+      <c r="D3363" t="inlineStr"/>
+      <c r="E3363" t="inlineStr"/>
+      <c r="F3363" t="inlineStr"/>
+      <c r="G3363" t="inlineStr"/>
+      <c r="H3363" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3363" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3363" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3364" t="inlineStr">
+        <is>
+          <t>{19: 5}</t>
+        </is>
+      </c>
+      <c r="C3364" t="inlineStr"/>
+      <c r="D3364" t="inlineStr"/>
+      <c r="E3364" t="inlineStr"/>
+      <c r="F3364" t="inlineStr"/>
+      <c r="G3364" t="inlineStr"/>
+      <c r="H3364" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3364" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3364" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3365" t="inlineStr">
+        <is>
+          <t>{19: 6}</t>
+        </is>
+      </c>
+      <c r="C3365" t="inlineStr"/>
+      <c r="D3365" t="inlineStr"/>
+      <c r="E3365" t="inlineStr"/>
+      <c r="F3365" t="inlineStr"/>
+      <c r="G3365" t="inlineStr"/>
+      <c r="H3365" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3365" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3365" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3366" t="inlineStr">
+        <is>
+          <t>{19: 7}</t>
+        </is>
+      </c>
+      <c r="C3366" t="inlineStr"/>
+      <c r="D3366" t="inlineStr"/>
+      <c r="E3366" t="inlineStr"/>
+      <c r="F3366" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G3366" t="inlineStr"/>
+      <c r="H3366" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3366" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3366" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3367" t="inlineStr">
+        <is>
+          <t>{19: 8}</t>
+        </is>
+      </c>
+      <c r="C3367" t="inlineStr"/>
+      <c r="D3367" t="inlineStr"/>
+      <c r="E3367" t="inlineStr"/>
+      <c r="F3367" t="inlineStr"/>
+      <c r="G3367" t="inlineStr"/>
+      <c r="H3367" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3367" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3367" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3368" t="inlineStr">
+        <is>
+          <t>{19: 9}</t>
+        </is>
+      </c>
+      <c r="C3368" t="inlineStr"/>
+      <c r="D3368" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3368" t="inlineStr"/>
+      <c r="F3368" t="inlineStr"/>
+      <c r="G3368" t="inlineStr"/>
+      <c r="H3368" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3368" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3368" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3369" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3369" t="inlineStr"/>
+      <c r="D3369" t="inlineStr"/>
+      <c r="E3369" t="inlineStr"/>
+      <c r="F3369" t="inlineStr"/>
+      <c r="G3369" t="inlineStr"/>
+      <c r="H3369" t="inlineStr">
+        <is>
+          <t>{19: 9}</t>
+        </is>
+      </c>
+      <c r="I3369" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3369" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3370" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3370" t="inlineStr"/>
+      <c r="D3370" t="inlineStr"/>
+      <c r="E3370" t="inlineStr"/>
+      <c r="F3370" t="inlineStr"/>
+      <c r="G3370" t="inlineStr"/>
+      <c r="H3370" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3370" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3370" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3371" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3371" t="inlineStr"/>
+      <c r="D3371" t="inlineStr"/>
+      <c r="E3371" t="inlineStr"/>
+      <c r="F3371" t="inlineStr"/>
+      <c r="G3371" t="inlineStr"/>
+      <c r="H3371" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3371" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3371" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3372" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3372" t="inlineStr"/>
+      <c r="D3372" t="inlineStr"/>
+      <c r="E3372" t="inlineStr"/>
+      <c r="F3372" t="inlineStr"/>
+      <c r="G3372" t="inlineStr"/>
+      <c r="H3372" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3372" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3372" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3373" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3373" t="inlineStr"/>
+      <c r="D3373" t="inlineStr"/>
+      <c r="E3373" t="inlineStr"/>
+      <c r="F3373" t="inlineStr"/>
+      <c r="G3373" t="inlineStr"/>
+      <c r="H3373" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3373" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3373" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3374" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3374" t="inlineStr"/>
+      <c r="D3374" t="inlineStr"/>
+      <c r="E3374" t="inlineStr"/>
+      <c r="F3374" t="inlineStr"/>
+      <c r="G3374" t="inlineStr"/>
+      <c r="H3374" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3374" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3374" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3375" t="inlineStr">
+        <is>
+          <t>{7: 0}</t>
+        </is>
+      </c>
+      <c r="C3375" t="inlineStr"/>
+      <c r="D3375" t="inlineStr"/>
+      <c r="E3375" t="inlineStr"/>
+      <c r="F3375" t="inlineStr"/>
+      <c r="G3375" t="inlineStr"/>
+      <c r="H3375" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3375" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3375" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3376" t="inlineStr">
+        <is>
+          <t>{7: 1}</t>
+        </is>
+      </c>
+      <c r="C3376" t="inlineStr"/>
+      <c r="D3376" t="inlineStr"/>
+      <c r="E3376" t="inlineStr"/>
+      <c r="F3376" t="inlineStr"/>
+      <c r="G3376" t="inlineStr"/>
+      <c r="H3376" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3376" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3376" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3377" t="inlineStr">
+        <is>
+          <t>{7: 2}</t>
+        </is>
+      </c>
+      <c r="C3377" t="inlineStr"/>
+      <c r="D3377" t="inlineStr"/>
+      <c r="E3377" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3377" t="inlineStr"/>
+      <c r="G3377" t="inlineStr"/>
+      <c r="H3377" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3377" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3377" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3378" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3378" t="inlineStr"/>
+      <c r="D3378" t="inlineStr"/>
+      <c r="E3378" t="inlineStr"/>
+      <c r="F3378" t="inlineStr"/>
+      <c r="G3378" t="inlineStr"/>
+      <c r="H3378" t="inlineStr">
+        <is>
+          <t>{7: 2}</t>
+        </is>
+      </c>
+      <c r="I3378" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3378" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3379" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3379" t="inlineStr"/>
+      <c r="D3379" t="inlineStr"/>
+      <c r="E3379" t="inlineStr"/>
+      <c r="F3379" t="inlineStr"/>
+      <c r="G3379" t="inlineStr"/>
+      <c r="H3379" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3379" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3379" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3380" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3380" t="inlineStr"/>
+      <c r="D3380" t="inlineStr"/>
+      <c r="E3380" t="inlineStr"/>
+      <c r="F3380" t="inlineStr"/>
+      <c r="G3380" t="inlineStr"/>
+      <c r="H3380" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3380" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3380" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3381" t="inlineStr">
+        <is>
+          <t>{3: 0}</t>
+        </is>
+      </c>
+      <c r="C3381" t="inlineStr"/>
+      <c r="D3381" t="inlineStr"/>
+      <c r="E3381" t="inlineStr"/>
+      <c r="F3381" t="inlineStr"/>
+      <c r="G3381" t="inlineStr"/>
+      <c r="H3381" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3381" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3381" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3382" t="inlineStr">
+        <is>
+          <t>{3: 1}</t>
+        </is>
+      </c>
+      <c r="C3382" t="inlineStr"/>
+      <c r="D3382" t="inlineStr"/>
+      <c r="E3382" t="inlineStr"/>
+      <c r="F3382" t="inlineStr"/>
+      <c r="G3382" t="inlineStr"/>
+      <c r="H3382" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3382" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3382" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3383" t="inlineStr">
+        <is>
+          <t>{3: 2}</t>
+        </is>
+      </c>
+      <c r="C3383" t="inlineStr"/>
+      <c r="D3383" t="inlineStr"/>
+      <c r="E3383" t="inlineStr"/>
+      <c r="F3383" t="inlineStr"/>
+      <c r="G3383" t="inlineStr"/>
+      <c r="H3383" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3383" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3383" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3384" t="inlineStr">
+        <is>
+          <t>{3: 3}</t>
+        </is>
+      </c>
+      <c r="C3384" t="inlineStr"/>
+      <c r="D3384" t="inlineStr"/>
+      <c r="E3384" t="inlineStr"/>
+      <c r="F3384" t="inlineStr"/>
+      <c r="G3384" t="inlineStr"/>
+      <c r="H3384" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3384" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3384" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3385" t="inlineStr">
+        <is>
+          <t>{6: 0, 3: 4}</t>
+        </is>
+      </c>
+      <c r="C3385" t="inlineStr"/>
+      <c r="D3385" t="inlineStr"/>
+      <c r="E3385" t="inlineStr"/>
+      <c r="F3385" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G3385" t="inlineStr"/>
+      <c r="H3385" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3385" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3385" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3386" t="inlineStr">
+        <is>
+          <t>{6: 1, 3: 5}</t>
+        </is>
+      </c>
+      <c r="C3386" t="inlineStr"/>
+      <c r="D3386" t="inlineStr"/>
+      <c r="E3386" t="inlineStr"/>
+      <c r="F3386" t="inlineStr"/>
+      <c r="G3386" t="inlineStr"/>
+      <c r="H3386" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3386" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3386" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3387" t="inlineStr">
+        <is>
+          <t>{6: 2, 3: 6}</t>
+        </is>
+      </c>
+      <c r="C3387" t="inlineStr"/>
+      <c r="D3387" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3387" t="inlineStr"/>
+      <c r="F3387" t="inlineStr"/>
+      <c r="G3387" t="inlineStr"/>
+      <c r="H3387" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3387" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3387" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3388" t="inlineStr">
+        <is>
+          <t>{3: 7}</t>
+        </is>
+      </c>
+      <c r="C3388" t="inlineStr"/>
+      <c r="D3388" t="inlineStr"/>
+      <c r="E3388" t="inlineStr"/>
+      <c r="F3388" t="inlineStr"/>
+      <c r="G3388" t="inlineStr"/>
+      <c r="H3388" t="inlineStr">
+        <is>
+          <t>{6: 2}</t>
+        </is>
+      </c>
+      <c r="I3388" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3388" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3389" t="inlineStr">
+        <is>
+          <t>{35: 0, 3: 8}</t>
+        </is>
+      </c>
+      <c r="C3389" t="inlineStr"/>
+      <c r="D3389" t="inlineStr"/>
+      <c r="E3389" t="inlineStr"/>
+      <c r="F3389" t="inlineStr"/>
+      <c r="G3389" t="inlineStr"/>
+      <c r="H3389" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3389" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3389" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3390" t="inlineStr">
+        <is>
+          <t>{35: 1, 3: 9}</t>
+        </is>
+      </c>
+      <c r="C3390" t="inlineStr"/>
+      <c r="D3390" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3390" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3390" t="inlineStr"/>
+      <c r="G3390" t="inlineStr"/>
+      <c r="H3390" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3390" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3390" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3391" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3391" t="inlineStr"/>
+      <c r="D3391" t="inlineStr"/>
+      <c r="E3391" t="inlineStr"/>
+      <c r="F3391" t="inlineStr"/>
+      <c r="G3391" t="inlineStr"/>
+      <c r="H3391" t="inlineStr">
+        <is>
+          <t>{35: 1, 3: 9}</t>
+        </is>
+      </c>
+      <c r="I3391" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3391" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3392" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3392" t="inlineStr"/>
+      <c r="D3392" t="inlineStr"/>
+      <c r="E3392" t="inlineStr"/>
+      <c r="F3392" t="inlineStr"/>
+      <c r="G3392" t="inlineStr"/>
+      <c r="H3392" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3392" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3392" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3393" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3393" t="inlineStr"/>
+      <c r="D3393" t="inlineStr"/>
+      <c r="E3393" t="inlineStr"/>
+      <c r="F3393" t="inlineStr"/>
+      <c r="G3393" t="inlineStr"/>
+      <c r="H3393" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3393" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3393" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3394" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3394" t="inlineStr"/>
+      <c r="D3394" t="inlineStr"/>
+      <c r="E3394" t="inlineStr"/>
+      <c r="F3394" t="inlineStr"/>
+      <c r="G3394" t="inlineStr"/>
+      <c r="H3394" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3394" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3394" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3395" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3395" t="inlineStr"/>
+      <c r="D3395" t="inlineStr"/>
+      <c r="E3395" t="inlineStr"/>
+      <c r="F3395" t="inlineStr"/>
+      <c r="G3395" t="inlineStr"/>
+      <c r="H3395" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3395" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3395" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3396" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3396" t="inlineStr"/>
+      <c r="D3396" t="inlineStr"/>
+      <c r="E3396" t="inlineStr"/>
+      <c r="F3396" t="inlineStr"/>
+      <c r="G3396" t="inlineStr"/>
+      <c r="H3396" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3396" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3396" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3397" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3397" t="inlineStr"/>
+      <c r="D3397" t="inlineStr"/>
+      <c r="E3397" t="inlineStr"/>
+      <c r="F3397" t="inlineStr"/>
+      <c r="G3397" t="inlineStr"/>
+      <c r="H3397" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3397" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3397" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3398" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3398" t="inlineStr"/>
+      <c r="D3398" t="inlineStr"/>
+      <c r="E3398" t="inlineStr"/>
+      <c r="F3398" t="inlineStr"/>
+      <c r="G3398" t="inlineStr"/>
+      <c r="H3398" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3398" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3398" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3399" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3399" t="inlineStr"/>
+      <c r="D3399" t="inlineStr"/>
+      <c r="E3399" t="inlineStr"/>
+      <c r="F3399" t="inlineStr"/>
+      <c r="G3399" t="inlineStr"/>
+      <c r="H3399" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3399" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3399" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3400" t="inlineStr">
+        <is>
+          <t>{0: 0}</t>
+        </is>
+      </c>
+      <c r="C3400" t="inlineStr"/>
+      <c r="D3400" t="inlineStr"/>
+      <c r="E3400" t="inlineStr"/>
+      <c r="F3400" t="inlineStr"/>
+      <c r="G3400" t="inlineStr"/>
+      <c r="H3400" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3400" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3400" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3401" t="inlineStr">
+        <is>
+          <t>{0: 1}</t>
+        </is>
+      </c>
+      <c r="C3401" t="inlineStr"/>
+      <c r="D3401" t="inlineStr"/>
+      <c r="E3401" t="inlineStr"/>
+      <c r="F3401" t="inlineStr"/>
+      <c r="G3401" t="inlineStr"/>
+      <c r="H3401" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3401" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3401" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3402" t="inlineStr">
+        <is>
+          <t>{0: 2}</t>
+        </is>
+      </c>
+      <c r="C3402" t="inlineStr"/>
+      <c r="D3402" t="inlineStr"/>
+      <c r="E3402" t="inlineStr"/>
+      <c r="F3402" t="inlineStr"/>
+      <c r="G3402" t="inlineStr"/>
+      <c r="H3402" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3402" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3402" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3403" t="inlineStr">
+        <is>
+          <t>{0: 3}</t>
+        </is>
+      </c>
+      <c r="C3403" t="inlineStr"/>
+      <c r="D3403" t="inlineStr"/>
+      <c r="E3403" t="inlineStr"/>
+      <c r="F3403" t="inlineStr"/>
+      <c r="G3403" t="inlineStr"/>
+      <c r="H3403" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3403" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3403" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3404" t="inlineStr">
+        <is>
+          <t>{0: 4}</t>
+        </is>
+      </c>
+      <c r="C3404" t="inlineStr"/>
+      <c r="D3404" t="inlineStr"/>
+      <c r="E3404" t="inlineStr"/>
+      <c r="F3404" t="inlineStr"/>
+      <c r="G3404" t="inlineStr"/>
+      <c r="H3404" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3404" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3404" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3405" t="inlineStr">
+        <is>
+          <t>{0: 5}</t>
+        </is>
+      </c>
+      <c r="C3405" t="inlineStr"/>
+      <c r="D3405" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3405" t="inlineStr"/>
+      <c r="F3405" t="inlineStr"/>
+      <c r="G3405" t="inlineStr"/>
+      <c r="H3405" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3405" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3405" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3406" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3406" t="inlineStr"/>
+      <c r="D3406" t="inlineStr"/>
+      <c r="E3406" t="inlineStr"/>
+      <c r="F3406" t="inlineStr"/>
+      <c r="G3406" t="inlineStr"/>
+      <c r="H3406" t="inlineStr">
+        <is>
+          <t>{0: 5}</t>
+        </is>
+      </c>
+      <c r="I3406" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3406" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3407" t="inlineStr">
+        <is>
+          <t>{5: 0}</t>
+        </is>
+      </c>
+      <c r="C3407" t="inlineStr"/>
+      <c r="D3407" t="inlineStr"/>
+      <c r="E3407" t="inlineStr"/>
+      <c r="F3407" t="inlineStr"/>
+      <c r="G3407" t="inlineStr"/>
+      <c r="H3407" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3407" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3407" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3408" t="inlineStr">
+        <is>
+          <t>{5: 1}</t>
+        </is>
+      </c>
+      <c r="C3408" t="inlineStr"/>
+      <c r="D3408" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3408" t="inlineStr"/>
+      <c r="F3408" t="inlineStr"/>
+      <c r="G3408" t="inlineStr"/>
+      <c r="H3408" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3408" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3408" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3409" t="inlineStr">
+        <is>
+          <t>{33: 0}</t>
+        </is>
+      </c>
+      <c r="C3409" t="inlineStr"/>
+      <c r="D3409" t="inlineStr"/>
+      <c r="E3409" t="inlineStr"/>
+      <c r="F3409" t="inlineStr"/>
+      <c r="G3409" t="inlineStr"/>
+      <c r="H3409" t="inlineStr">
+        <is>
+          <t>{5: 1}</t>
+        </is>
+      </c>
+      <c r="I3409" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3409" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3410" t="inlineStr">
+        <is>
+          <t>{33: 1}</t>
+        </is>
+      </c>
+      <c r="C3410" t="inlineStr"/>
+      <c r="D3410" t="inlineStr"/>
+      <c r="E3410" t="inlineStr"/>
+      <c r="F3410" t="inlineStr"/>
+      <c r="G3410" t="inlineStr"/>
+      <c r="H3410" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3410" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3410" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3411" t="inlineStr">
+        <is>
+          <t>{33: 2}</t>
+        </is>
+      </c>
+      <c r="C3411" t="inlineStr"/>
+      <c r="D3411" t="inlineStr"/>
+      <c r="E3411" t="inlineStr"/>
+      <c r="F3411" t="inlineStr"/>
+      <c r="G3411" t="inlineStr"/>
+      <c r="H3411" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3411" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3411" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3412" t="inlineStr">
+        <is>
+          <t>{33: 3}</t>
+        </is>
+      </c>
+      <c r="C3412" t="inlineStr"/>
+      <c r="D3412" t="inlineStr"/>
+      <c r="E3412" t="inlineStr"/>
+      <c r="F3412" t="inlineStr"/>
+      <c r="G3412" t="inlineStr"/>
+      <c r="H3412" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3412" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3412" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3413" t="inlineStr">
+        <is>
+          <t>{33: 4}</t>
+        </is>
+      </c>
+      <c r="C3413" t="inlineStr"/>
+      <c r="D3413" t="inlineStr"/>
+      <c r="E3413" t="inlineStr"/>
+      <c r="F3413" t="inlineStr"/>
+      <c r="G3413" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H3413" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3413" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3413" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3414" t="inlineStr">
+        <is>
+          <t>{33: 5}</t>
+        </is>
+      </c>
+      <c r="C3414" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D3414" t="inlineStr"/>
+      <c r="E3414" t="inlineStr"/>
+      <c r="F3414" t="inlineStr"/>
+      <c r="G3414" t="inlineStr"/>
+      <c r="H3414" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3414" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3414" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3415" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3415" t="inlineStr"/>
+      <c r="D3415" t="inlineStr"/>
+      <c r="E3415" t="inlineStr"/>
+      <c r="F3415" t="inlineStr"/>
+      <c r="G3415" t="inlineStr"/>
+      <c r="H3415" t="inlineStr">
+        <is>
+          <t>{33: 5}</t>
+        </is>
+      </c>
+      <c r="I3415" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3415" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3416" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3416" t="inlineStr"/>
+      <c r="D3416" t="inlineStr"/>
+      <c r="E3416" t="inlineStr"/>
+      <c r="F3416" t="inlineStr"/>
+      <c r="G3416" t="inlineStr"/>
+      <c r="H3416" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3416" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3416" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3417" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3417" t="inlineStr"/>
+      <c r="D3417" t="inlineStr"/>
+      <c r="E3417" t="inlineStr"/>
+      <c r="F3417" t="inlineStr"/>
+      <c r="G3417" t="inlineStr"/>
+      <c r="H3417" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3417" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3417" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3418" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3418" t="inlineStr"/>
+      <c r="D3418" t="inlineStr"/>
+      <c r="E3418" t="inlineStr"/>
+      <c r="F3418" t="inlineStr"/>
+      <c r="G3418" t="inlineStr"/>
+      <c r="H3418" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3418" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3418" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3419" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3419" t="inlineStr"/>
+      <c r="D3419" t="inlineStr"/>
+      <c r="E3419" t="inlineStr"/>
+      <c r="F3419" t="inlineStr"/>
+      <c r="G3419" t="inlineStr"/>
+      <c r="H3419" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3419" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3419" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3420" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3420" t="inlineStr"/>
+      <c r="D3420" t="inlineStr"/>
+      <c r="E3420" t="inlineStr"/>
+      <c r="F3420" t="inlineStr"/>
+      <c r="G3420" t="inlineStr"/>
+      <c r="H3420" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3420" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3420" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3421" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3421" t="inlineStr"/>
+      <c r="D3421" t="inlineStr"/>
+      <c r="E3421" t="inlineStr"/>
+      <c r="F3421" t="inlineStr"/>
+      <c r="G3421" t="inlineStr"/>
+      <c r="H3421" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3421" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3421" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3422" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3422" t="inlineStr"/>
+      <c r="D3422" t="inlineStr"/>
+      <c r="E3422" t="inlineStr"/>
+      <c r="F3422" t="inlineStr"/>
+      <c r="G3422" t="inlineStr"/>
+      <c r="H3422" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3422" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3422" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3423" t="inlineStr">
+        <is>
+          <t>{1: 0}</t>
+        </is>
+      </c>
+      <c r="C3423" t="inlineStr"/>
+      <c r="D3423" t="inlineStr"/>
+      <c r="E3423" t="inlineStr"/>
+      <c r="F3423" t="inlineStr"/>
+      <c r="G3423" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H3423" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3423" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3423" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3424" t="inlineStr">
+        <is>
+          <t>{33: 0, 1: 1}</t>
+        </is>
+      </c>
+      <c r="C3424" t="inlineStr"/>
+      <c r="D3424" t="inlineStr"/>
+      <c r="E3424" t="inlineStr"/>
+      <c r="F3424" t="inlineStr"/>
+      <c r="G3424" t="inlineStr"/>
+      <c r="H3424" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3424" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3424" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3425" t="inlineStr">
+        <is>
+          <t>{32: 0, 33: 1, 1: 2}</t>
+        </is>
+      </c>
+      <c r="C3425" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D3425" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3425" t="inlineStr"/>
+      <c r="F3425" t="inlineStr"/>
+      <c r="G3425" t="inlineStr"/>
+      <c r="H3425" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3425" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3425" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3426" t="inlineStr">
+        <is>
+          <t>{32: 1}</t>
+        </is>
+      </c>
+      <c r="C3426" t="inlineStr"/>
+      <c r="D3426" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3426" t="inlineStr"/>
+      <c r="F3426" t="inlineStr"/>
+      <c r="G3426" t="inlineStr"/>
+      <c r="H3426" t="inlineStr">
+        <is>
+          <t>{1: 2, 33: 1}</t>
+        </is>
+      </c>
+      <c r="I3426" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3426" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3427" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3427" t="inlineStr"/>
+      <c r="D3427" t="inlineStr"/>
+      <c r="E3427" t="inlineStr"/>
+      <c r="F3427" t="inlineStr"/>
+      <c r="G3427" t="inlineStr"/>
+      <c r="H3427" t="inlineStr">
+        <is>
+          <t>{32: 1}</t>
+        </is>
+      </c>
+      <c r="I3427" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3427" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3428" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3428" t="inlineStr"/>
+      <c r="D3428" t="inlineStr"/>
+      <c r="E3428" t="inlineStr"/>
+      <c r="F3428" t="inlineStr"/>
+      <c r="G3428" t="inlineStr"/>
+      <c r="H3428" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3428" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3428" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3429" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3429" t="inlineStr"/>
+      <c r="D3429" t="inlineStr"/>
+      <c r="E3429" t="inlineStr"/>
+      <c r="F3429" t="inlineStr"/>
+      <c r="G3429" t="inlineStr"/>
+      <c r="H3429" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3429" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3429" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3430" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3430" t="inlineStr"/>
+      <c r="D3430" t="inlineStr"/>
+      <c r="E3430" t="inlineStr"/>
+      <c r="F3430" t="inlineStr"/>
+      <c r="G3430" t="inlineStr"/>
+      <c r="H3430" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3430" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3430" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3431" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3431" t="inlineStr"/>
+      <c r="D3431" t="inlineStr"/>
+      <c r="E3431" t="inlineStr"/>
+      <c r="F3431" t="inlineStr"/>
+      <c r="G3431" t="inlineStr"/>
+      <c r="H3431" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3431" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3431" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3432" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3432" t="inlineStr"/>
+      <c r="D3432" t="inlineStr"/>
+      <c r="E3432" t="inlineStr"/>
+      <c r="F3432" t="inlineStr"/>
+      <c r="G3432" t="inlineStr"/>
+      <c r="H3432" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3432" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3432" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3433" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3433" t="inlineStr"/>
+      <c r="D3433" t="inlineStr"/>
+      <c r="E3433" t="inlineStr"/>
+      <c r="F3433" t="inlineStr"/>
+      <c r="G3433" t="inlineStr"/>
+      <c r="H3433" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3433" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3433" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3434" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3434" t="inlineStr"/>
+      <c r="D3434" t="inlineStr"/>
+      <c r="E3434" t="inlineStr"/>
+      <c r="F3434" t="inlineStr"/>
+      <c r="G3434" t="inlineStr"/>
+      <c r="H3434" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3434" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3434" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3435" t="inlineStr">
+        <is>
+          <t>{10: 0}</t>
+        </is>
+      </c>
+      <c r="C3435" t="inlineStr"/>
+      <c r="D3435" t="inlineStr"/>
+      <c r="E3435" t="inlineStr"/>
+      <c r="F3435" t="inlineStr"/>
+      <c r="G3435" t="inlineStr"/>
+      <c r="H3435" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3435" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3435" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3436" t="inlineStr">
+        <is>
+          <t>{10: 1}</t>
+        </is>
+      </c>
+      <c r="C3436" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D3436" t="inlineStr"/>
+      <c r="E3436" t="inlineStr"/>
+      <c r="F3436" t="inlineStr"/>
+      <c r="G3436" t="inlineStr"/>
+      <c r="H3436" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3436" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3436" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3437" t="inlineStr">
+        <is>
+          <t>{8: 0}</t>
+        </is>
+      </c>
+      <c r="C3437" t="inlineStr"/>
+      <c r="D3437" t="inlineStr"/>
+      <c r="E3437" t="inlineStr"/>
+      <c r="F3437" t="inlineStr"/>
+      <c r="G3437" t="inlineStr"/>
+      <c r="H3437" t="inlineStr">
+        <is>
+          <t>{10: 1}</t>
+        </is>
+      </c>
+      <c r="I3437" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3437" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3438" t="inlineStr">
+        <is>
+          <t>{8: 1}</t>
+        </is>
+      </c>
+      <c r="C3438" t="inlineStr"/>
+      <c r="D3438" t="inlineStr"/>
+      <c r="E3438" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3438" t="inlineStr"/>
+      <c r="G3438" t="inlineStr"/>
+      <c r="H3438" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3438" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3438" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3439" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3439" t="inlineStr"/>
+      <c r="D3439" t="inlineStr"/>
+      <c r="E3439" t="inlineStr"/>
+      <c r="F3439" t="inlineStr"/>
+      <c r="G3439" t="inlineStr"/>
+      <c r="H3439" t="inlineStr">
+        <is>
+          <t>{8: 1}</t>
+        </is>
+      </c>
+      <c r="I3439" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3439" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3440" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3440" t="inlineStr"/>
+      <c r="D3440" t="inlineStr"/>
+      <c r="E3440" t="inlineStr"/>
+      <c r="F3440" t="inlineStr"/>
+      <c r="G3440" t="inlineStr"/>
+      <c r="H3440" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3440" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3440" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3441" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3441" t="inlineStr"/>
+      <c r="D3441" t="inlineStr"/>
+      <c r="E3441" t="inlineStr"/>
+      <c r="F3441" t="inlineStr"/>
+      <c r="G3441" t="inlineStr"/>
+      <c r="H3441" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3441" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3441" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3442" t="inlineStr">
+        <is>
+          <t>{35: 0}</t>
+        </is>
+      </c>
+      <c r="C3442" t="inlineStr"/>
+      <c r="D3442" t="inlineStr"/>
+      <c r="E3442" t="inlineStr"/>
+      <c r="F3442" t="inlineStr"/>
+      <c r="G3442" t="inlineStr"/>
+      <c r="H3442" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3442" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3442" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3443" t="inlineStr">
+        <is>
+          <t>{35: 1}</t>
+        </is>
+      </c>
+      <c r="C3443" t="inlineStr"/>
+      <c r="D3443" t="inlineStr"/>
+      <c r="E3443" t="inlineStr"/>
+      <c r="F3443" t="inlineStr"/>
+      <c r="G3443" t="inlineStr"/>
+      <c r="H3443" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3443" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3443" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3444" t="inlineStr">
+        <is>
+          <t>{35: 2}</t>
+        </is>
+      </c>
+      <c r="C3444" t="inlineStr"/>
+      <c r="D3444" t="inlineStr"/>
+      <c r="E3444" t="inlineStr"/>
+      <c r="F3444" t="inlineStr"/>
+      <c r="G3444" t="inlineStr"/>
+      <c r="H3444" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3444" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3444" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3445" t="inlineStr">
+        <is>
+          <t>{35: 3}</t>
+        </is>
+      </c>
+      <c r="C3445" t="inlineStr"/>
+      <c r="D3445" t="inlineStr"/>
+      <c r="E3445" t="inlineStr"/>
+      <c r="F3445" t="inlineStr"/>
+      <c r="G3445" t="inlineStr"/>
+      <c r="H3445" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3445" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3445" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3446" t="inlineStr">
+        <is>
+          <t>{26: 0, 35: 4}</t>
+        </is>
+      </c>
+      <c r="C3446" t="inlineStr"/>
+      <c r="D3446" t="inlineStr"/>
+      <c r="E3446" t="inlineStr"/>
+      <c r="F3446" t="inlineStr"/>
+      <c r="G3446" t="inlineStr"/>
+      <c r="H3446" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3446" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3446" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3447" t="inlineStr">
+        <is>
+          <t>{26: 1, 35: 5}</t>
+        </is>
+      </c>
+      <c r="C3447" t="inlineStr"/>
+      <c r="D3447" t="inlineStr"/>
+      <c r="E3447" t="inlineStr"/>
+      <c r="F3447" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G3447" t="inlineStr"/>
+      <c r="H3447" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3447" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3447" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3448" t="inlineStr">
+        <is>
+          <t>{26: 2, 35: 6}</t>
+        </is>
+      </c>
+      <c r="C3448" t="inlineStr"/>
+      <c r="D3448" t="inlineStr"/>
+      <c r="E3448" t="inlineStr"/>
+      <c r="F3448" t="inlineStr"/>
+      <c r="G3448" t="inlineStr"/>
+      <c r="H3448" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3448" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3448" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3449" t="inlineStr">
+        <is>
+          <t>{26: 3, 35: 7}</t>
+        </is>
+      </c>
+      <c r="C3449" t="inlineStr"/>
+      <c r="D3449" t="inlineStr"/>
+      <c r="E3449" t="inlineStr"/>
+      <c r="F3449" t="inlineStr"/>
+      <c r="G3449" t="inlineStr"/>
+      <c r="H3449" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3449" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3449" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3450" t="inlineStr">
+        <is>
+          <t>{26: 4, 35: 8}</t>
+        </is>
+      </c>
+      <c r="C3450" t="inlineStr"/>
+      <c r="D3450" t="inlineStr"/>
+      <c r="E3450" t="inlineStr"/>
+      <c r="F3450" t="inlineStr"/>
+      <c r="G3450" t="inlineStr"/>
+      <c r="H3450" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3450" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3450" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3451" t="inlineStr">
+        <is>
+          <t>{26: 5, 35: 9}</t>
+        </is>
+      </c>
+      <c r="C3451" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D3451" t="inlineStr"/>
+      <c r="E3451" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3451" t="inlineStr"/>
+      <c r="G3451" t="inlineStr"/>
+      <c r="H3451" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3451" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3451" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3452" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3452" t="inlineStr"/>
+      <c r="D3452" t="inlineStr"/>
+      <c r="E3452" t="inlineStr"/>
+      <c r="F3452" t="inlineStr"/>
+      <c r="G3452" t="inlineStr"/>
+      <c r="H3452" t="inlineStr">
+        <is>
+          <t>{35: 9, 26: 5}</t>
+        </is>
+      </c>
+      <c r="I3452" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3452" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3453" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3453" t="inlineStr"/>
+      <c r="D3453" t="inlineStr"/>
+      <c r="E3453" t="inlineStr"/>
+      <c r="F3453" t="inlineStr"/>
+      <c r="G3453" t="inlineStr"/>
+      <c r="H3453" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3453" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3453" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3454" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3454" t="inlineStr"/>
+      <c r="D3454" t="inlineStr"/>
+      <c r="E3454" t="inlineStr"/>
+      <c r="F3454" t="inlineStr"/>
+      <c r="G3454" t="inlineStr"/>
+      <c r="H3454" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3454" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3454" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3455" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3455" t="inlineStr"/>
+      <c r="D3455" t="inlineStr"/>
+      <c r="E3455" t="inlineStr"/>
+      <c r="F3455" t="inlineStr"/>
+      <c r="G3455" t="inlineStr"/>
+      <c r="H3455" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3455" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3455" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3456" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3456" t="inlineStr"/>
+      <c r="D3456" t="inlineStr"/>
+      <c r="E3456" t="inlineStr"/>
+      <c r="F3456" t="inlineStr"/>
+      <c r="G3456" t="inlineStr"/>
+      <c r="H3456" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3456" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3456" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3457" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3457" t="inlineStr"/>
+      <c r="D3457" t="inlineStr"/>
+      <c r="E3457" t="inlineStr"/>
+      <c r="F3457" t="inlineStr"/>
+      <c r="G3457" t="inlineStr"/>
+      <c r="H3457" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3457" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3457" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3458" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3458" t="inlineStr"/>
+      <c r="D3458" t="inlineStr"/>
+      <c r="E3458" t="inlineStr"/>
+      <c r="F3458" t="inlineStr"/>
+      <c r="G3458" t="inlineStr"/>
+      <c r="H3458" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3458" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3458" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3459" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3459" t="inlineStr"/>
+      <c r="D3459" t="inlineStr"/>
+      <c r="E3459" t="inlineStr"/>
+      <c r="F3459" t="inlineStr"/>
+      <c r="G3459" t="inlineStr"/>
+      <c r="H3459" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3459" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3459" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3460" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3460" t="inlineStr"/>
+      <c r="D3460" t="inlineStr"/>
+      <c r="E3460" t="inlineStr"/>
+      <c r="F3460" t="inlineStr"/>
+      <c r="G3460" t="inlineStr"/>
+      <c r="H3460" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3460" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3460" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3461" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3461" t="inlineStr"/>
+      <c r="D3461" t="inlineStr"/>
+      <c r="E3461" t="inlineStr"/>
+      <c r="F3461" t="inlineStr"/>
+      <c r="G3461" t="inlineStr"/>
+      <c r="H3461" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3461" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3461" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3462" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3462" t="inlineStr"/>
+      <c r="D3462" t="inlineStr"/>
+      <c r="E3462" t="inlineStr"/>
+      <c r="F3462" t="inlineStr"/>
+      <c r="G3462" t="inlineStr"/>
+      <c r="H3462" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3462" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3462" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3463" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3463" t="inlineStr"/>
+      <c r="D3463" t="inlineStr"/>
+      <c r="E3463" t="inlineStr"/>
+      <c r="F3463" t="inlineStr"/>
+      <c r="G3463" t="inlineStr"/>
+      <c r="H3463" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3463" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3463" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3464" t="inlineStr">
+        <is>
+          <t>{25: 0}</t>
+        </is>
+      </c>
+      <c r="C3464" t="inlineStr"/>
+      <c r="D3464" t="inlineStr"/>
+      <c r="E3464" t="inlineStr"/>
+      <c r="F3464" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G3464" t="inlineStr"/>
+      <c r="H3464" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3464" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3464" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3465" t="inlineStr">
+        <is>
+          <t>{25: 1}</t>
+        </is>
+      </c>
+      <c r="C3465" t="inlineStr"/>
+      <c r="D3465" t="inlineStr"/>
+      <c r="E3465" t="inlineStr"/>
+      <c r="F3465" t="inlineStr"/>
+      <c r="G3465" t="inlineStr"/>
+      <c r="H3465" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3465" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3465" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3466" t="inlineStr">
+        <is>
+          <t>{25: 2}</t>
+        </is>
+      </c>
+      <c r="C3466" t="inlineStr"/>
+      <c r="D3466" t="inlineStr"/>
+      <c r="E3466" t="inlineStr"/>
+      <c r="F3466" t="inlineStr"/>
+      <c r="G3466" t="inlineStr"/>
+      <c r="H3466" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3466" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3466" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3467" t="inlineStr">
+        <is>
+          <t>{25: 3}</t>
+        </is>
+      </c>
+      <c r="C3467" t="inlineStr"/>
+      <c r="D3467" t="inlineStr"/>
+      <c r="E3467" t="inlineStr"/>
+      <c r="F3467" t="inlineStr"/>
+      <c r="G3467" t="inlineStr"/>
+      <c r="H3467" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3467" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3467" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3468" t="inlineStr">
+        <is>
+          <t>{25: 4}</t>
+        </is>
+      </c>
+      <c r="C3468" t="inlineStr"/>
+      <c r="D3468" t="inlineStr"/>
+      <c r="E3468" t="inlineStr"/>
+      <c r="F3468" t="inlineStr"/>
+      <c r="G3468" t="inlineStr"/>
+      <c r="H3468" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3468" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3468" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3469" t="inlineStr">
+        <is>
+          <t>{25: 5}</t>
+        </is>
+      </c>
+      <c r="C3469" t="inlineStr"/>
+      <c r="D3469" t="inlineStr"/>
+      <c r="E3469" t="inlineStr"/>
+      <c r="F3469" t="inlineStr"/>
+      <c r="G3469" t="inlineStr"/>
+      <c r="H3469" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3469" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3469" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3470" t="inlineStr">
+        <is>
+          <t>{25: 6}</t>
+        </is>
+      </c>
+      <c r="C3470" t="inlineStr"/>
+      <c r="D3470" t="inlineStr"/>
+      <c r="E3470" t="inlineStr"/>
+      <c r="F3470" t="inlineStr"/>
+      <c r="G3470" t="inlineStr"/>
+      <c r="H3470" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3470" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3470" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3471" t="inlineStr">
+        <is>
+          <t>{25: 7}</t>
+        </is>
+      </c>
+      <c r="C3471" t="inlineStr"/>
+      <c r="D3471" t="inlineStr"/>
+      <c r="E3471" t="inlineStr"/>
+      <c r="F3471" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G3471" t="inlineStr"/>
+      <c r="H3471" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3471" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3471" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3472" t="inlineStr">
+        <is>
+          <t>{25: 8}</t>
+        </is>
+      </c>
+      <c r="C3472" t="inlineStr"/>
+      <c r="D3472" t="inlineStr"/>
+      <c r="E3472" t="inlineStr"/>
+      <c r="F3472" t="inlineStr"/>
+      <c r="G3472" t="inlineStr"/>
+      <c r="H3472" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3472" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3472" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3473" t="inlineStr">
+        <is>
+          <t>{25: 9}</t>
+        </is>
+      </c>
+      <c r="C3473" t="inlineStr"/>
+      <c r="D3473" t="inlineStr"/>
+      <c r="E3473" t="inlineStr"/>
+      <c r="F3473" t="inlineStr"/>
+      <c r="G3473" t="inlineStr"/>
+      <c r="H3473" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3473" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3473" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3474" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3474" t="inlineStr"/>
+      <c r="D3474" t="inlineStr"/>
+      <c r="E3474" t="inlineStr"/>
+      <c r="F3474" t="inlineStr"/>
+      <c r="G3474" t="inlineStr"/>
+      <c r="H3474" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3474" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="J3474" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3475" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3475" t="inlineStr"/>
+      <c r="D3475" t="inlineStr"/>
+      <c r="E3475" t="inlineStr"/>
+      <c r="F3475" t="inlineStr"/>
+      <c r="G3475" t="inlineStr"/>
+      <c r="H3475" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3475" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3475" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3476" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3476" t="inlineStr"/>
+      <c r="D3476" t="inlineStr"/>
+      <c r="E3476" t="inlineStr"/>
+      <c r="F3476" t="inlineStr"/>
+      <c r="G3476" t="inlineStr"/>
+      <c r="H3476" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3476" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3476" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3477" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3477" t="inlineStr"/>
+      <c r="D3477" t="inlineStr"/>
+      <c r="E3477" t="inlineStr"/>
+      <c r="F3477" t="inlineStr"/>
+      <c r="G3477" t="inlineStr"/>
+      <c r="H3477" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3477" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3477" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3478" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3478" t="inlineStr"/>
+      <c r="D3478" t="inlineStr"/>
+      <c r="E3478" t="inlineStr"/>
+      <c r="F3478" t="inlineStr"/>
+      <c r="G3478" t="inlineStr"/>
+      <c r="H3478" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3478" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3478" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3479" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3479" t="inlineStr"/>
+      <c r="D3479" t="inlineStr"/>
+      <c r="E3479" t="inlineStr"/>
+      <c r="F3479" t="inlineStr"/>
+      <c r="G3479" t="inlineStr"/>
+      <c r="H3479" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3479" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3479" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3480" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3480" t="inlineStr"/>
+      <c r="D3480" t="inlineStr"/>
+      <c r="E3480" t="inlineStr"/>
+      <c r="F3480" t="inlineStr"/>
+      <c r="G3480" t="inlineStr"/>
+      <c r="H3480" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3480" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3480" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3481" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3481" t="inlineStr"/>
+      <c r="D3481" t="inlineStr"/>
+      <c r="E3481" t="inlineStr"/>
+      <c r="F3481" t="inlineStr"/>
+      <c r="G3481" t="inlineStr"/>
+      <c r="H3481" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3481" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3481" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3482">
+      <c r="A3482" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3482" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3482" t="inlineStr"/>
+      <c r="D3482" t="inlineStr"/>
+      <c r="E3482" t="inlineStr"/>
+      <c r="F3482" t="inlineStr"/>
+      <c r="G3482" t="inlineStr"/>
+      <c r="H3482" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3482" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3482" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3483">
+      <c r="A3483" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3483" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3483" t="inlineStr"/>
+      <c r="D3483" t="inlineStr"/>
+      <c r="E3483" t="inlineStr"/>
+      <c r="F3483" t="inlineStr"/>
+      <c r="G3483" t="inlineStr"/>
+      <c r="H3483" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3483" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3483" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3484">
+      <c r="A3484" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3484" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3484" t="inlineStr"/>
+      <c r="D3484" t="inlineStr"/>
+      <c r="E3484" t="inlineStr"/>
+      <c r="F3484" t="inlineStr"/>
+      <c r="G3484" t="inlineStr"/>
+      <c r="H3484" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3484" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3484" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3485">
+      <c r="A3485" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3485" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3485" t="inlineStr"/>
+      <c r="D3485" t="inlineStr"/>
+      <c r="E3485" t="inlineStr"/>
+      <c r="F3485" t="inlineStr"/>
+      <c r="G3485" t="inlineStr"/>
+      <c r="H3485" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3485" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3485" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3486">
+      <c r="A3486" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3486" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3486" t="inlineStr"/>
+      <c r="D3486" t="inlineStr"/>
+      <c r="E3486" t="inlineStr"/>
+      <c r="F3486" t="inlineStr"/>
+      <c r="G3486" t="inlineStr"/>
+      <c r="H3486" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3486" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3486" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3487">
+      <c r="A3487" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3487" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3487" t="inlineStr"/>
+      <c r="D3487" t="inlineStr"/>
+      <c r="E3487" t="inlineStr"/>
+      <c r="F3487" t="inlineStr"/>
+      <c r="G3487" t="inlineStr"/>
+      <c r="H3487" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3487" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3487" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3488">
+      <c r="A3488" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3488" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3488" t="inlineStr"/>
+      <c r="D3488" t="inlineStr"/>
+      <c r="E3488" t="inlineStr"/>
+      <c r="F3488" t="inlineStr"/>
+      <c r="G3488" t="inlineStr"/>
+      <c r="H3488" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3488" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3488" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3489">
+      <c r="A3489" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3489" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3489" t="inlineStr"/>
+      <c r="D3489" t="inlineStr"/>
+      <c r="E3489" t="inlineStr"/>
+      <c r="F3489" t="inlineStr"/>
+      <c r="G3489" t="inlineStr"/>
+      <c r="H3489" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3489" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3489" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3490">
+      <c r="A3490" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3490" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3490" t="inlineStr"/>
+      <c r="D3490" t="inlineStr"/>
+      <c r="E3490" t="inlineStr"/>
+      <c r="F3490" t="inlineStr"/>
+      <c r="G3490" t="inlineStr"/>
+      <c r="H3490" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3490" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3490" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3491">
+      <c r="A3491" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3491" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3491" t="inlineStr"/>
+      <c r="D3491" t="inlineStr"/>
+      <c r="E3491" t="inlineStr"/>
+      <c r="F3491" t="inlineStr"/>
+      <c r="G3491" t="inlineStr"/>
+      <c r="H3491" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3491" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3491" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3492">
+      <c r="A3492" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3492" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3492" t="inlineStr"/>
+      <c r="D3492" t="inlineStr"/>
+      <c r="E3492" t="inlineStr"/>
+      <c r="F3492" t="inlineStr"/>
+      <c r="G3492" t="inlineStr"/>
+      <c r="H3492" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3492" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3492" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3493">
+      <c r="A3493" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3493" t="inlineStr">
+        <is>
+          <t>{30: 0}</t>
+        </is>
+      </c>
+      <c r="C3493" t="inlineStr"/>
+      <c r="D3493" t="inlineStr"/>
+      <c r="E3493" t="inlineStr"/>
+      <c r="F3493" t="inlineStr"/>
+      <c r="G3493" t="inlineStr"/>
+      <c r="H3493" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3493" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3493" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3494">
+      <c r="A3494" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3494" t="inlineStr">
+        <is>
+          <t>{30: 1}</t>
+        </is>
+      </c>
+      <c r="C3494" t="inlineStr"/>
+      <c r="D3494" t="inlineStr"/>
+      <c r="E3494" t="inlineStr"/>
+      <c r="F3494" t="inlineStr"/>
+      <c r="G3494" t="inlineStr"/>
+      <c r="H3494" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3494" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3494" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3495">
+      <c r="A3495" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3495" t="inlineStr">
+        <is>
+          <t>{30: 2}</t>
+        </is>
+      </c>
+      <c r="C3495" t="inlineStr"/>
+      <c r="D3495" t="inlineStr"/>
+      <c r="E3495" t="inlineStr"/>
+      <c r="F3495" t="inlineStr"/>
+      <c r="G3495" t="inlineStr"/>
+      <c r="H3495" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3495" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3495" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3496">
+      <c r="A3496" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3496" t="inlineStr">
+        <is>
+          <t>{30: 3}</t>
+        </is>
+      </c>
+      <c r="C3496" t="inlineStr"/>
+      <c r="D3496" t="inlineStr"/>
+      <c r="E3496" t="inlineStr"/>
+      <c r="F3496" t="inlineStr"/>
+      <c r="G3496" t="inlineStr"/>
+      <c r="H3496" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3496" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3496" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3497">
+      <c r="A3497" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3497" t="inlineStr">
+        <is>
+          <t>{30: 4}</t>
+        </is>
+      </c>
+      <c r="C3497" t="inlineStr"/>
+      <c r="D3497" t="inlineStr"/>
+      <c r="E3497" t="inlineStr"/>
+      <c r="F3497" t="inlineStr"/>
+      <c r="G3497" t="inlineStr"/>
+      <c r="H3497" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3497" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3497" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3498">
+      <c r="A3498" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3498" t="inlineStr">
+        <is>
+          <t>{10: 0, 30: 5}</t>
+        </is>
+      </c>
+      <c r="C3498" t="inlineStr"/>
+      <c r="D3498" t="inlineStr"/>
+      <c r="E3498" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3498" t="inlineStr"/>
+      <c r="G3498" t="inlineStr"/>
+      <c r="H3498" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3498" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3498" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3499">
+      <c r="A3499" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3499" t="inlineStr">
+        <is>
+          <t>{30: 6}</t>
+        </is>
+      </c>
+      <c r="C3499" t="inlineStr"/>
+      <c r="D3499" t="inlineStr"/>
+      <c r="E3499" t="inlineStr"/>
+      <c r="F3499" t="inlineStr"/>
+      <c r="G3499" t="inlineStr"/>
+      <c r="H3499" t="inlineStr">
+        <is>
+          <t>{10: 0}</t>
+        </is>
+      </c>
+      <c r="I3499" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3499" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3500">
+      <c r="A3500" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3500" t="inlineStr">
+        <is>
+          <t>{30: 7}</t>
+        </is>
+      </c>
+      <c r="C3500" t="inlineStr"/>
+      <c r="D3500" t="inlineStr"/>
+      <c r="E3500" t="inlineStr"/>
+      <c r="F3500" t="inlineStr"/>
+      <c r="G3500" t="inlineStr"/>
+      <c r="H3500" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3500" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3500" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3501">
+      <c r="A3501" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3501" t="inlineStr">
+        <is>
+          <t>{30: 8}</t>
+        </is>
+      </c>
+      <c r="C3501" t="inlineStr"/>
+      <c r="D3501" t="inlineStr"/>
+      <c r="E3501" t="inlineStr"/>
+      <c r="F3501" t="inlineStr"/>
+      <c r="G3501" t="inlineStr"/>
+      <c r="H3501" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3501" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3501" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3502">
+      <c r="A3502" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3502" t="inlineStr">
+        <is>
+          <t>{31: 0, 30: 9}</t>
+        </is>
+      </c>
+      <c r="C3502" t="inlineStr"/>
+      <c r="D3502" t="inlineStr"/>
+      <c r="E3502" t="inlineStr"/>
+      <c r="F3502" t="inlineStr">
+        <is>
+          <t>V3L</t>
+        </is>
+      </c>
+      <c r="G3502" t="inlineStr"/>
+      <c r="H3502" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3502" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3502" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3503">
+      <c r="A3503" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3503" t="inlineStr">
+        <is>
+          <t>{31: 1}</t>
+        </is>
+      </c>
+      <c r="C3503" t="inlineStr"/>
+      <c r="D3503" t="inlineStr"/>
+      <c r="E3503" t="inlineStr"/>
+      <c r="F3503" t="inlineStr"/>
+      <c r="G3503" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H3503" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3503" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+      <c r="J3503" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3504">
+      <c r="A3504" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3504" t="inlineStr">
+        <is>
+          <t>{31: 2}</t>
+        </is>
+      </c>
+      <c r="C3504" t="inlineStr"/>
+      <c r="D3504" t="inlineStr"/>
+      <c r="E3504" t="inlineStr"/>
+      <c r="F3504" t="inlineStr"/>
+      <c r="G3504" t="inlineStr"/>
+      <c r="H3504" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3504" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3504" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3505">
+      <c r="A3505" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3505" t="inlineStr">
+        <is>
+          <t>{9: 0, 31: 3}</t>
+        </is>
+      </c>
+      <c r="C3505" t="inlineStr"/>
+      <c r="D3505" t="inlineStr"/>
+      <c r="E3505" t="inlineStr"/>
+      <c r="F3505" t="inlineStr"/>
+      <c r="G3505" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H3505" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3505" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3505" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3506">
+      <c r="A3506" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3506" t="inlineStr">
+        <is>
+          <t>{9: 1, 31: 4}</t>
+        </is>
+      </c>
+      <c r="C3506" t="inlineStr"/>
+      <c r="D3506" t="inlineStr"/>
+      <c r="E3506" t="inlineStr"/>
+      <c r="F3506" t="inlineStr"/>
+      <c r="G3506" t="inlineStr"/>
+      <c r="H3506" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3506" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3506" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3507">
+      <c r="A3507" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3507" t="inlineStr">
+        <is>
+          <t>{9: 2, 31: 5}</t>
+        </is>
+      </c>
+      <c r="C3507" t="inlineStr"/>
+      <c r="D3507" t="inlineStr"/>
+      <c r="E3507" t="inlineStr"/>
+      <c r="F3507" t="inlineStr"/>
+      <c r="G3507" t="inlineStr"/>
+      <c r="H3507" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3507" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3507" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3508">
+      <c r="A3508" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3508" t="inlineStr">
+        <is>
+          <t>{9: 3, 31: 6}</t>
+        </is>
+      </c>
+      <c r="C3508" t="inlineStr"/>
+      <c r="D3508" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3508" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3508" t="inlineStr"/>
+      <c r="G3508" t="inlineStr"/>
+      <c r="H3508" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3508" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3508" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3509">
+      <c r="A3509" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3509" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3509" t="inlineStr"/>
+      <c r="D3509" t="inlineStr"/>
+      <c r="E3509" t="inlineStr"/>
+      <c r="F3509" t="inlineStr"/>
+      <c r="G3509" t="inlineStr"/>
+      <c r="H3509" t="inlineStr">
+        <is>
+          <t>{9: 3, 31: 6}</t>
+        </is>
+      </c>
+      <c r="I3509" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3509" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3510">
+      <c r="A3510" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3510" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3510" t="inlineStr"/>
+      <c r="D3510" t="inlineStr"/>
+      <c r="E3510" t="inlineStr"/>
+      <c r="F3510" t="inlineStr"/>
+      <c r="G3510" t="inlineStr"/>
+      <c r="H3510" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3510" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3510" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3511">
+      <c r="A3511" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3511" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3511" t="inlineStr"/>
+      <c r="D3511" t="inlineStr"/>
+      <c r="E3511" t="inlineStr"/>
+      <c r="F3511" t="inlineStr"/>
+      <c r="G3511" t="inlineStr"/>
+      <c r="H3511" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3511" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3511" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3512">
+      <c r="A3512" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3512" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3512" t="inlineStr"/>
+      <c r="D3512" t="inlineStr"/>
+      <c r="E3512" t="inlineStr"/>
+      <c r="F3512" t="inlineStr"/>
+      <c r="G3512" t="inlineStr"/>
+      <c r="H3512" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3512" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3512" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3513">
+      <c r="A3513" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3513" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3513" t="inlineStr"/>
+      <c r="D3513" t="inlineStr"/>
+      <c r="E3513" t="inlineStr"/>
+      <c r="F3513" t="inlineStr"/>
+      <c r="G3513" t="inlineStr"/>
+      <c r="H3513" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3513" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3513" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3514" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3514" t="inlineStr"/>
+      <c r="D3514" t="inlineStr"/>
+      <c r="E3514" t="inlineStr"/>
+      <c r="F3514" t="inlineStr"/>
+      <c r="G3514" t="inlineStr"/>
+      <c r="H3514" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3514" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3514" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3515" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3515" t="inlineStr"/>
+      <c r="D3515" t="inlineStr"/>
+      <c r="E3515" t="inlineStr"/>
+      <c r="F3515" t="inlineStr"/>
+      <c r="G3515" t="inlineStr"/>
+      <c r="H3515" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3515" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3515" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" t="n">
+        <v>13</v>
+      </c>
+      <c r="B3516" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3516" t="inlineStr"/>
+      <c r="D3516" t="inlineStr"/>
+      <c r="E3516" t="inlineStr"/>
+      <c r="F3516" t="inlineStr"/>
+      <c r="G3516" t="inlineStr"/>
+      <c r="H3516" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3516" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3516" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3517">
+      <c r="A3517" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3517" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3517" t="inlineStr"/>
+      <c r="D3517" t="inlineStr"/>
+      <c r="E3517" t="inlineStr"/>
+      <c r="F3517" t="inlineStr"/>
+      <c r="G3517" t="inlineStr"/>
+      <c r="H3517" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3517" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3517" t="n">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3518" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3518" t="inlineStr"/>
+      <c r="D3518" t="inlineStr"/>
+      <c r="E3518" t="inlineStr"/>
+      <c r="F3518" t="inlineStr"/>
+      <c r="G3518" t="inlineStr"/>
+      <c r="H3518" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3518" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3518" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3519" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3519" t="inlineStr"/>
+      <c r="D3519" t="inlineStr"/>
+      <c r="E3519" t="inlineStr"/>
+      <c r="F3519" t="inlineStr"/>
+      <c r="G3519" t="inlineStr"/>
+      <c r="H3519" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3519" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3519" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3520">
+      <c r="A3520" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3520" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3520" t="inlineStr"/>
+      <c r="D3520" t="inlineStr"/>
+      <c r="E3520" t="inlineStr"/>
+      <c r="F3520" t="inlineStr"/>
+      <c r="G3520" t="inlineStr"/>
+      <c r="H3520" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3520" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3520" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3521">
+      <c r="A3521" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3521" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3521" t="inlineStr"/>
+      <c r="D3521" t="inlineStr"/>
+      <c r="E3521" t="inlineStr"/>
+      <c r="F3521" t="inlineStr"/>
+      <c r="G3521" t="inlineStr"/>
+      <c r="H3521" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3521" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3521" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3522">
+      <c r="A3522" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3522" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3522" t="inlineStr"/>
+      <c r="D3522" t="inlineStr"/>
+      <c r="E3522" t="inlineStr"/>
+      <c r="F3522" t="inlineStr"/>
+      <c r="G3522" t="inlineStr"/>
+      <c r="H3522" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3522" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3522" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3523">
+      <c r="A3523" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3523" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3523" t="inlineStr"/>
+      <c r="D3523" t="inlineStr"/>
+      <c r="E3523" t="inlineStr"/>
+      <c r="F3523" t="inlineStr"/>
+      <c r="G3523" t="inlineStr"/>
+      <c r="H3523" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3523" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3523" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3524">
+      <c r="A3524" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3524" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3524" t="inlineStr"/>
+      <c r="D3524" t="inlineStr"/>
+      <c r="E3524" t="inlineStr"/>
+      <c r="F3524" t="inlineStr"/>
+      <c r="G3524" t="inlineStr"/>
+      <c r="H3524" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3524" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3524" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3525">
+      <c r="A3525" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3525" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3525" t="inlineStr"/>
+      <c r="D3525" t="inlineStr"/>
+      <c r="E3525" t="inlineStr"/>
+      <c r="F3525" t="inlineStr"/>
+      <c r="G3525" t="inlineStr"/>
+      <c r="H3525" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3525" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3525" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3526" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3526" t="inlineStr"/>
+      <c r="D3526" t="inlineStr"/>
+      <c r="E3526" t="inlineStr"/>
+      <c r="F3526" t="inlineStr"/>
+      <c r="G3526" t="inlineStr"/>
+      <c r="H3526" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3526" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3526" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3527" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3527" t="inlineStr"/>
+      <c r="D3527" t="inlineStr"/>
+      <c r="E3527" t="inlineStr"/>
+      <c r="F3527" t="inlineStr"/>
+      <c r="G3527" t="inlineStr"/>
+      <c r="H3527" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3527" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3527" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3528" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3528" t="inlineStr"/>
+      <c r="D3528" t="inlineStr"/>
+      <c r="E3528" t="inlineStr"/>
+      <c r="F3528" t="inlineStr"/>
+      <c r="G3528" t="inlineStr"/>
+      <c r="H3528" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3528" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3528" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3529" t="inlineStr">
+        <is>
+          <t>{13: 0}</t>
+        </is>
+      </c>
+      <c r="C3529" t="inlineStr"/>
+      <c r="D3529" t="inlineStr"/>
+      <c r="E3529" t="inlineStr"/>
+      <c r="F3529" t="inlineStr"/>
+      <c r="G3529" t="inlineStr"/>
+      <c r="H3529" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3529" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3529" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3530" t="inlineStr">
+        <is>
+          <t>{13: 1}</t>
+        </is>
+      </c>
+      <c r="C3530" t="inlineStr"/>
+      <c r="D3530" t="inlineStr"/>
+      <c r="E3530" t="inlineStr"/>
+      <c r="F3530" t="inlineStr"/>
+      <c r="G3530" t="inlineStr"/>
+      <c r="H3530" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3530" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3530" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3531" t="inlineStr">
+        <is>
+          <t>{13: 2}</t>
+        </is>
+      </c>
+      <c r="C3531" t="inlineStr"/>
+      <c r="D3531" t="inlineStr"/>
+      <c r="E3531" t="inlineStr"/>
+      <c r="F3531" t="inlineStr"/>
+      <c r="G3531" t="inlineStr"/>
+      <c r="H3531" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3531" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3531" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3532">
+      <c r="A3532" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3532" t="inlineStr">
+        <is>
+          <t>{13: 3}</t>
+        </is>
+      </c>
+      <c r="C3532" t="inlineStr"/>
+      <c r="D3532" t="inlineStr"/>
+      <c r="E3532" t="inlineStr"/>
+      <c r="F3532" t="inlineStr"/>
+      <c r="G3532" t="inlineStr"/>
+      <c r="H3532" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3532" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3532" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3533" t="inlineStr">
+        <is>
+          <t>{13: 4}</t>
+        </is>
+      </c>
+      <c r="C3533" t="inlineStr"/>
+      <c r="D3533" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3533" t="inlineStr"/>
+      <c r="F3533" t="inlineStr"/>
+      <c r="G3533" t="inlineStr"/>
+      <c r="H3533" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3533" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3533" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3534">
+      <c r="A3534" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3534" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3534" t="inlineStr"/>
+      <c r="D3534" t="inlineStr"/>
+      <c r="E3534" t="inlineStr"/>
+      <c r="F3534" t="inlineStr"/>
+      <c r="G3534" t="inlineStr"/>
+      <c r="H3534" t="inlineStr">
+        <is>
+          <t>{13: 4}</t>
+        </is>
+      </c>
+      <c r="I3534" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3534" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3535">
+      <c r="A3535" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3535" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3535" t="inlineStr"/>
+      <c r="D3535" t="inlineStr"/>
+      <c r="E3535" t="inlineStr"/>
+      <c r="F3535" t="inlineStr"/>
+      <c r="G3535" t="inlineStr"/>
+      <c r="H3535" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3535" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3535" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3536">
+      <c r="A3536" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3536" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3536" t="inlineStr"/>
+      <c r="D3536" t="inlineStr"/>
+      <c r="E3536" t="inlineStr"/>
+      <c r="F3536" t="inlineStr"/>
+      <c r="G3536" t="inlineStr"/>
+      <c r="H3536" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3536" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3536" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3537">
+      <c r="A3537" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3537" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3537" t="inlineStr"/>
+      <c r="D3537" t="inlineStr"/>
+      <c r="E3537" t="inlineStr"/>
+      <c r="F3537" t="inlineStr"/>
+      <c r="G3537" t="inlineStr"/>
+      <c r="H3537" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3537" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3537" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3538">
+      <c r="A3538" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3538" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3538" t="inlineStr"/>
+      <c r="D3538" t="inlineStr"/>
+      <c r="E3538" t="inlineStr"/>
+      <c r="F3538" t="inlineStr"/>
+      <c r="G3538" t="inlineStr"/>
+      <c r="H3538" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3538" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3538" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3539">
+      <c r="A3539" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3539" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3539" t="inlineStr"/>
+      <c r="D3539" t="inlineStr"/>
+      <c r="E3539" t="inlineStr"/>
+      <c r="F3539" t="inlineStr"/>
+      <c r="G3539" t="inlineStr"/>
+      <c r="H3539" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3539" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3539" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3540">
+      <c r="A3540" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3540" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3540" t="inlineStr"/>
+      <c r="D3540" t="inlineStr"/>
+      <c r="E3540" t="inlineStr"/>
+      <c r="F3540" t="inlineStr"/>
+      <c r="G3540" t="inlineStr"/>
+      <c r="H3540" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3540" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3540" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3541">
+      <c r="A3541" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3541" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3541" t="inlineStr"/>
+      <c r="D3541" t="inlineStr"/>
+      <c r="E3541" t="inlineStr"/>
+      <c r="F3541" t="inlineStr"/>
+      <c r="G3541" t="inlineStr"/>
+      <c r="H3541" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3541" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3541" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3542">
+      <c r="A3542" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3542" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3542" t="inlineStr"/>
+      <c r="D3542" t="inlineStr"/>
+      <c r="E3542" t="inlineStr"/>
+      <c r="F3542" t="inlineStr"/>
+      <c r="G3542" t="inlineStr"/>
+      <c r="H3542" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3542" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3542" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3543">
+      <c r="A3543" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3543" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3543" t="inlineStr"/>
+      <c r="D3543" t="inlineStr"/>
+      <c r="E3543" t="inlineStr"/>
+      <c r="F3543" t="inlineStr"/>
+      <c r="G3543" t="inlineStr"/>
+      <c r="H3543" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3543" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3543" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3544">
+      <c r="A3544" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3544" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3544" t="inlineStr"/>
+      <c r="D3544" t="inlineStr"/>
+      <c r="E3544" t="inlineStr"/>
+      <c r="F3544" t="inlineStr"/>
+      <c r="G3544" t="inlineStr"/>
+      <c r="H3544" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3544" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3544" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3545">
+      <c r="A3545" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3545" t="inlineStr">
+        <is>
+          <t>{34: 0}</t>
+        </is>
+      </c>
+      <c r="C3545" t="inlineStr"/>
+      <c r="D3545" t="inlineStr"/>
+      <c r="E3545" t="inlineStr"/>
+      <c r="F3545" t="inlineStr"/>
+      <c r="G3545" t="inlineStr"/>
+      <c r="H3545" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3545" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3545" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3546">
+      <c r="A3546" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3546" t="inlineStr">
+        <is>
+          <t>{12: 0, 34: 1}</t>
+        </is>
+      </c>
+      <c r="C3546" t="inlineStr"/>
+      <c r="D3546" t="inlineStr"/>
+      <c r="E3546" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3546" t="inlineStr"/>
+      <c r="G3546" t="inlineStr"/>
+      <c r="H3546" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3546" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3546" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3547">
+      <c r="A3547" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3547" t="inlineStr">
+        <is>
+          <t>{34: 2}</t>
+        </is>
+      </c>
+      <c r="C3547" t="inlineStr"/>
+      <c r="D3547" t="inlineStr"/>
+      <c r="E3547" t="inlineStr"/>
+      <c r="F3547" t="inlineStr"/>
+      <c r="G3547" t="inlineStr"/>
+      <c r="H3547" t="inlineStr">
+        <is>
+          <t>{12: 0}</t>
+        </is>
+      </c>
+      <c r="I3547" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3547" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3548">
+      <c r="A3548" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3548" t="inlineStr">
+        <is>
+          <t>{34: 3}</t>
+        </is>
+      </c>
+      <c r="C3548" t="inlineStr"/>
+      <c r="D3548" t="inlineStr"/>
+      <c r="E3548" t="inlineStr"/>
+      <c r="F3548" t="inlineStr"/>
+      <c r="G3548" t="inlineStr"/>
+      <c r="H3548" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3548" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3548" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3549">
+      <c r="A3549" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3549" t="inlineStr">
+        <is>
+          <t>{34: 4}</t>
+        </is>
+      </c>
+      <c r="C3549" t="inlineStr"/>
+      <c r="D3549" t="inlineStr"/>
+      <c r="E3549" t="inlineStr"/>
+      <c r="F3549" t="inlineStr"/>
+      <c r="G3549" t="inlineStr"/>
+      <c r="H3549" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3549" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3549" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3550">
+      <c r="A3550" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3550" t="inlineStr">
+        <is>
+          <t>{34: 5}</t>
+        </is>
+      </c>
+      <c r="C3550" t="inlineStr"/>
+      <c r="D3550" t="inlineStr"/>
+      <c r="E3550" t="inlineStr"/>
+      <c r="F3550" t="inlineStr"/>
+      <c r="G3550" t="inlineStr"/>
+      <c r="H3550" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3550" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3550" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3551">
+      <c r="A3551" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3551" t="inlineStr">
+        <is>
+          <t>{34: 6}</t>
+        </is>
+      </c>
+      <c r="C3551" t="inlineStr"/>
+      <c r="D3551" t="inlineStr"/>
+      <c r="E3551" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3551" t="inlineStr"/>
+      <c r="G3551" t="inlineStr"/>
+      <c r="H3551" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3551" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3551" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3552" t="inlineStr">
+        <is>
+          <t>{11: 0}</t>
+        </is>
+      </c>
+      <c r="C3552" t="inlineStr"/>
+      <c r="D3552" t="inlineStr"/>
+      <c r="E3552" t="inlineStr"/>
+      <c r="F3552" t="inlineStr"/>
+      <c r="G3552" t="inlineStr"/>
+      <c r="H3552" t="inlineStr">
+        <is>
+          <t>{34: 6}</t>
+        </is>
+      </c>
+      <c r="I3552" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3552" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3553" t="inlineStr">
+        <is>
+          <t>{11: 1}</t>
+        </is>
+      </c>
+      <c r="C3553" t="inlineStr"/>
+      <c r="D3553" t="inlineStr"/>
+      <c r="E3553" t="inlineStr"/>
+      <c r="F3553" t="inlineStr"/>
+      <c r="G3553" t="inlineStr"/>
+      <c r="H3553" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3553" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3553" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3554" t="inlineStr">
+        <is>
+          <t>{11: 2}</t>
+        </is>
+      </c>
+      <c r="C3554" t="inlineStr"/>
+      <c r="D3554" t="inlineStr"/>
+      <c r="E3554" t="inlineStr"/>
+      <c r="F3554" t="inlineStr"/>
+      <c r="G3554" t="inlineStr"/>
+      <c r="H3554" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3554" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3554" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" t="n">
+        <v>22</v>
+      </c>
+      <c r="B3555" t="inlineStr">
+        <is>
+          <t>{11: 3}</t>
+        </is>
+      </c>
+      <c r="C3555" t="inlineStr"/>
+      <c r="D3555" t="inlineStr"/>
+      <c r="E3555" t="inlineStr"/>
+      <c r="F3555" t="inlineStr"/>
+      <c r="G3555" t="inlineStr"/>
+      <c r="H3555" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3555" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3555" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3556" t="inlineStr">
+        <is>
+          <t>{11: 4}</t>
+        </is>
+      </c>
+      <c r="C3556" t="inlineStr"/>
+      <c r="D3556" t="inlineStr">
+        <is>
+          <t>V1L</t>
+        </is>
+      </c>
+      <c r="E3556" t="inlineStr"/>
+      <c r="F3556" t="inlineStr"/>
+      <c r="G3556" t="inlineStr"/>
+      <c r="H3556" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3556" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3556" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3557" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3557" t="inlineStr"/>
+      <c r="D3557" t="inlineStr"/>
+      <c r="E3557" t="inlineStr"/>
+      <c r="F3557" t="inlineStr"/>
+      <c r="G3557" t="inlineStr"/>
+      <c r="H3557" t="inlineStr">
+        <is>
+          <t>{11: 4}</t>
+        </is>
+      </c>
+      <c r="I3557" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3557" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3558">
+      <c r="A3558" t="n">
+        <v>33</v>
+      </c>
+      <c r="B3558" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3558" t="inlineStr"/>
+      <c r="D3558" t="inlineStr"/>
+      <c r="E3558" t="inlineStr"/>
+      <c r="F3558" t="inlineStr"/>
+      <c r="G3558" t="inlineStr"/>
+      <c r="H3558" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3558" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3558" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3559">
+      <c r="A3559" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3559" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3559" t="inlineStr"/>
+      <c r="D3559" t="inlineStr"/>
+      <c r="E3559" t="inlineStr"/>
+      <c r="F3559" t="inlineStr"/>
+      <c r="G3559" t="inlineStr"/>
+      <c r="H3559" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3559" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3559" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3560" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3560" t="inlineStr"/>
+      <c r="D3560" t="inlineStr"/>
+      <c r="E3560" t="inlineStr"/>
+      <c r="F3560" t="inlineStr"/>
+      <c r="G3560" t="inlineStr"/>
+      <c r="H3560" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3560" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3560" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3561" t="inlineStr">
+        <is>
+          <t>{6: 0}</t>
+        </is>
+      </c>
+      <c r="C3561" t="inlineStr"/>
+      <c r="D3561" t="inlineStr"/>
+      <c r="E3561" t="inlineStr"/>
+      <c r="F3561" t="inlineStr"/>
+      <c r="G3561" t="inlineStr"/>
+      <c r="H3561" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3561" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3561" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3562" t="inlineStr">
+        <is>
+          <t>{6: 1}</t>
+        </is>
+      </c>
+      <c r="C3562" t="inlineStr"/>
+      <c r="D3562" t="inlineStr"/>
+      <c r="E3562" t="inlineStr"/>
+      <c r="F3562" t="inlineStr"/>
+      <c r="G3562" t="inlineStr"/>
+      <c r="H3562" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3562" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3562" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3563" t="inlineStr">
+        <is>
+          <t>{6: 0}</t>
+        </is>
+      </c>
+      <c r="C3563" t="inlineStr"/>
+      <c r="D3563" t="inlineStr"/>
+      <c r="E3563" t="inlineStr"/>
+      <c r="F3563" t="inlineStr"/>
+      <c r="G3563" t="inlineStr"/>
+      <c r="H3563" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3563" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3563" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3564" t="inlineStr">
+        <is>
+          <t>{6: 1}</t>
+        </is>
+      </c>
+      <c r="C3564" t="inlineStr"/>
+      <c r="D3564" t="inlineStr"/>
+      <c r="E3564" t="inlineStr"/>
+      <c r="F3564" t="inlineStr"/>
+      <c r="G3564" t="inlineStr"/>
+      <c r="H3564" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3564" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3564" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" t="n">
+        <v>29</v>
+      </c>
+      <c r="B3565" t="inlineStr">
+        <is>
+          <t>{28: 0, 6: 2}</t>
+        </is>
+      </c>
+      <c r="C3565" t="inlineStr"/>
+      <c r="D3565" t="inlineStr"/>
+      <c r="E3565" t="inlineStr"/>
+      <c r="F3565" t="inlineStr"/>
+      <c r="G3565" t="inlineStr"/>
+      <c r="H3565" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3565" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3565" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3566" t="inlineStr">
+        <is>
+          <t>{6: 0, 28: 1}</t>
+        </is>
+      </c>
+      <c r="C3566" t="inlineStr"/>
+      <c r="D3566" t="inlineStr"/>
+      <c r="E3566" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3566" t="inlineStr"/>
+      <c r="G3566" t="inlineStr"/>
+      <c r="H3566" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3566" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3566" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3567">
+      <c r="A3567" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3567" t="inlineStr">
+        <is>
+          <t>{6: 1}</t>
+        </is>
+      </c>
+      <c r="C3567" t="inlineStr"/>
+      <c r="D3567" t="inlineStr"/>
+      <c r="E3567" t="inlineStr"/>
+      <c r="F3567" t="inlineStr"/>
+      <c r="G3567" t="inlineStr"/>
+      <c r="H3567" t="inlineStr">
+        <is>
+          <t>{28: 1}</t>
+        </is>
+      </c>
+      <c r="I3567" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3567" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3568">
+      <c r="A3568" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3568" t="inlineStr">
+        <is>
+          <t>{31: 0, 6: 2}</t>
+        </is>
+      </c>
+      <c r="C3568" t="inlineStr"/>
+      <c r="D3568" t="inlineStr"/>
+      <c r="E3568" t="inlineStr"/>
+      <c r="F3568" t="inlineStr"/>
+      <c r="G3568" t="inlineStr"/>
+      <c r="H3568" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3568" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3568" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3569">
+      <c r="A3569" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3569" t="inlineStr">
+        <is>
+          <t>{31: 1, 6: 3}</t>
+        </is>
+      </c>
+      <c r="C3569" t="inlineStr"/>
+      <c r="D3569" t="inlineStr"/>
+      <c r="E3569" t="inlineStr"/>
+      <c r="F3569" t="inlineStr"/>
+      <c r="G3569" t="inlineStr"/>
+      <c r="H3569" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3569" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3569" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3570">
+      <c r="A3570" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3570" t="inlineStr">
+        <is>
+          <t>{31: 2, 6: 4}</t>
+        </is>
+      </c>
+      <c r="C3570" t="inlineStr"/>
+      <c r="D3570" t="inlineStr"/>
+      <c r="E3570" t="inlineStr"/>
+      <c r="F3570" t="inlineStr"/>
+      <c r="G3570" t="inlineStr"/>
+      <c r="H3570" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3570" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3570" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3571">
+      <c r="A3571" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3571" t="inlineStr">
+        <is>
+          <t>{31: 3, 6: 5}</t>
+        </is>
+      </c>
+      <c r="C3571" t="inlineStr"/>
+      <c r="D3571" t="inlineStr"/>
+      <c r="E3571" t="inlineStr"/>
+      <c r="F3571" t="inlineStr"/>
+      <c r="G3571" t="inlineStr">
+        <is>
+          <t>V4L</t>
+        </is>
+      </c>
+      <c r="H3571" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3571" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3571" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3572">
+      <c r="A3572" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3572" t="inlineStr">
+        <is>
+          <t>{31: 4, 6: 6}</t>
+        </is>
+      </c>
+      <c r="C3572" t="inlineStr"/>
+      <c r="D3572" t="inlineStr"/>
+      <c r="E3572" t="inlineStr"/>
+      <c r="F3572" t="inlineStr"/>
+      <c r="G3572" t="inlineStr"/>
+      <c r="H3572" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3572" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3572" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3573">
+      <c r="A3573" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3573" t="inlineStr">
+        <is>
+          <t>{31: 5, 6: 7}</t>
+        </is>
+      </c>
+      <c r="C3573" t="inlineStr"/>
+      <c r="D3573" t="inlineStr"/>
+      <c r="E3573" t="inlineStr"/>
+      <c r="F3573" t="inlineStr"/>
+      <c r="G3573" t="inlineStr"/>
+      <c r="H3573" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3573" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3573" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3574">
+      <c r="A3574" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3574" t="inlineStr">
+        <is>
+          <t>{31: 6, 6: 8}</t>
+        </is>
+      </c>
+      <c r="C3574" t="inlineStr"/>
+      <c r="D3574" t="inlineStr"/>
+      <c r="E3574" t="inlineStr"/>
+      <c r="F3574" t="inlineStr"/>
+      <c r="G3574" t="inlineStr"/>
+      <c r="H3574" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3574" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3574" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3575">
+      <c r="A3575" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3575" t="inlineStr">
+        <is>
+          <t>{31: 7, 6: 9}</t>
+        </is>
+      </c>
+      <c r="C3575" t="inlineStr"/>
+      <c r="D3575" t="inlineStr"/>
+      <c r="E3575" t="inlineStr"/>
+      <c r="F3575" t="inlineStr"/>
+      <c r="G3575" t="inlineStr"/>
+      <c r="H3575" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3575" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3575" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3576">
+      <c r="A3576" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3576" t="inlineStr">
+        <is>
+          <t>{31: 8}</t>
+        </is>
+      </c>
+      <c r="C3576" t="inlineStr"/>
+      <c r="D3576" t="inlineStr"/>
+      <c r="E3576" t="inlineStr"/>
+      <c r="F3576" t="inlineStr"/>
+      <c r="G3576" t="inlineStr"/>
+      <c r="H3576" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3576" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+      <c r="J3576" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3577">
+      <c r="A3577" t="n">
+        <v>24</v>
+      </c>
+      <c r="B3577" t="inlineStr">
+        <is>
+          <t>{31: 9}</t>
+        </is>
+      </c>
+      <c r="C3577" t="inlineStr"/>
+      <c r="D3577" t="inlineStr"/>
+      <c r="E3577" t="inlineStr"/>
+      <c r="F3577" t="inlineStr"/>
+      <c r="G3577" t="inlineStr"/>
+      <c r="H3577" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3577" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3577" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3578">
+      <c r="A3578" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3578" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3578" t="inlineStr"/>
+      <c r="D3578" t="inlineStr"/>
+      <c r="E3578" t="inlineStr"/>
+      <c r="F3578" t="inlineStr"/>
+      <c r="G3578" t="inlineStr"/>
+      <c r="H3578" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3578" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="J3578" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3579">
+      <c r="A3579" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3579" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3579" t="inlineStr"/>
+      <c r="D3579" t="inlineStr"/>
+      <c r="E3579" t="inlineStr"/>
+      <c r="F3579" t="inlineStr"/>
+      <c r="G3579" t="inlineStr"/>
+      <c r="H3579" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3579" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3579" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3580">
+      <c r="A3580" t="n">
+        <v>35</v>
+      </c>
+      <c r="B3580" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3580" t="inlineStr"/>
+      <c r="D3580" t="inlineStr"/>
+      <c r="E3580" t="inlineStr"/>
+      <c r="F3580" t="inlineStr"/>
+      <c r="G3580" t="inlineStr"/>
+      <c r="H3580" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3580" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3580" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3581">
+      <c r="A3581" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3581" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3581" t="inlineStr"/>
+      <c r="D3581" t="inlineStr"/>
+      <c r="E3581" t="inlineStr"/>
+      <c r="F3581" t="inlineStr"/>
+      <c r="G3581" t="inlineStr"/>
+      <c r="H3581" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3581" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3581" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3582">
+      <c r="A3582" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3582" t="inlineStr">
+        <is>
+          <t>{25: 0}</t>
+        </is>
+      </c>
+      <c r="C3582" t="inlineStr"/>
+      <c r="D3582" t="inlineStr"/>
+      <c r="E3582" t="inlineStr">
+        <is>
+          <t>V2L</t>
+        </is>
+      </c>
+      <c r="F3582" t="inlineStr"/>
+      <c r="G3582" t="inlineStr"/>
+      <c r="H3582" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3582" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3582" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3583">
+      <c r="A3583" t="n">
+        <v>34</v>
+      </c>
+      <c r="B3583" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3583" t="inlineStr"/>
+      <c r="D3583" t="inlineStr"/>
+      <c r="E3583" t="inlineStr"/>
+      <c r="F3583" t="inlineStr"/>
+      <c r="G3583" t="inlineStr"/>
+      <c r="H3583" t="inlineStr">
+        <is>
+          <t>{25: 0}</t>
+        </is>
+      </c>
+      <c r="I3583" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3583" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3584">
+      <c r="A3584" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3584" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3584" t="inlineStr"/>
+      <c r="D3584" t="inlineStr"/>
+      <c r="E3584" t="inlineStr"/>
+      <c r="F3584" t="inlineStr"/>
+      <c r="G3584" t="inlineStr"/>
+      <c r="H3584" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3584" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3584" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3585">
+      <c r="A3585" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3585" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3585" t="inlineStr"/>
+      <c r="D3585" t="inlineStr"/>
+      <c r="E3585" t="inlineStr"/>
+      <c r="F3585" t="inlineStr"/>
+      <c r="G3585" t="inlineStr"/>
+      <c r="H3585" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3585" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3585" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3586">
+      <c r="A3586" t="n">
+        <v>36</v>
+      </c>
+      <c r="B3586" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="C3586" t="inlineStr"/>
+      <c r="D3586" t="inlineStr"/>
+      <c r="E3586" t="inlineStr"/>
+      <c r="F3586" t="inlineStr"/>
+      <c r="G3586" t="inlineStr"/>
+      <c r="H3586" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="I3586" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J3586" t="n">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
